--- a/$GTLB.xlsx
+++ b/$GTLB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FA334E-A7EC-41FC-88C8-D347E3060F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0848CC21-8F32-43C9-8940-C8D04E3CD630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F69BF4D-74DA-4B99-851A-86D37B91804A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F69BF4D-74DA-4B99-851A-86D37B91804A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>$GTLB</t>
   </si>
@@ -347,16 +338,76 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>FY34</t>
+  </si>
+  <si>
+    <t>FY35</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current SP</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>DevOps Git Repositories, License/Subscription model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0\x"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +469,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -535,24 +593,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -561,19 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +656,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -630,10 +667,29 @@
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,18 +698,39 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -765,6 +842,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7924800" y="9525"/>
+          <a:ext cx="0" cy="14316075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00DB7CC-1AFE-4EF6-BF37-C8AEF3787A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="0"/>
           <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1088,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C351D5-6D1F-45E0-98C8-B94DC16F2D33}">
-  <dimension ref="A2:O38"/>
+  <dimension ref="A2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1103,6 +1230,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1110,513 +1240,535 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="G5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>62.99</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="29">
         <f>+'Financial Model'!L21</f>
         <v>159.67699999999999</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="19" t="str">
         <f>+C30</f>
         <v>Q225</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <f>C6*C7</f>
         <v>10058.05423</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="D8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <f>+'Financial Model'!L62</f>
         <v>1083.104</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="19" t="str">
         <f>+C30</f>
         <v>Q225</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f>+'Financial Model'!L63</f>
         <v>0</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="19" t="str">
         <f>+C30</f>
         <v>Q225</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <f>C9-C10</f>
         <v>1083.104</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="19" t="str">
         <f>+C30</f>
         <v>Q225</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <f>C8-C11</f>
         <v>8974.9502300000004</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G13" s="24"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="24"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
+      <c r="D16" s="39"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="D17" s="39"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="D18" s="39"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="49" t="str">
         <f>+C16</f>
         <v>Sytse Sijbrandij</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+      <c r="D19" s="50"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G20" s="24"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G21" s="24"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="38">
         <v>2011</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
+      <c r="D23" s="39"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
+      <c r="D24" s="39"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="38">
         <v>2021</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
+      <c r="D25" s="39"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="43">
         <v>2130</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
+      <c r="D28" s="44"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="35">
         <v>45536</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
+      <c r="D31" s="46"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="47">
         <f>+C6/'Financial Model'!L60</f>
         <v>14.619179873954225</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="47">
+        <f>+C8/SUM('Financial Model'!I6:L6)</f>
+        <v>15.11993696803153</v>
+      </c>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="47">
+        <f>+C6/SUM('Financial Model'!I20:L20)</f>
+        <v>-26.754735051777317</v>
+      </c>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="47">
+        <f>+C6/'Financial Model'!L80</f>
+        <v>171.81507055005125</v>
+      </c>
+      <c r="D38" s="48"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C39" s="49">
         <v>41</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D39" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1633,11 +1785,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{3CFDFC33-4502-4D5A-AAC4-1C9E296A7A2D}"/>
@@ -1649,13 +1796,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479A7C19-8595-4298-8C6A-8F2F334D2581}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:CT81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1665,575 +1812,2266 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="G2" s="31">
+      <c r="U1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="E2" s="24">
+        <v>44865</v>
+      </c>
+      <c r="F2" s="24">
+        <v>44957</v>
+      </c>
+      <c r="G2" s="24">
         <v>45046</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="24">
         <v>45138</v>
       </c>
-      <c r="K2" s="31">
+      <c r="I2" s="24">
+        <v>45230</v>
+      </c>
+      <c r="J2" s="24">
+        <v>45322</v>
+      </c>
+      <c r="K2" s="24">
         <v>45412</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="24">
         <v>45504</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="K3" s="32">
+      <c r="S2" s="24">
+        <f>+J2</f>
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="I3" s="25">
+        <v>38322</v>
+      </c>
+      <c r="J3" s="51">
+        <v>45355</v>
+      </c>
+      <c r="K3" s="25">
         <v>38139</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="25">
         <v>45536</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+      <c r="S3" s="51">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="48">
+      <c r="E4" s="36">
+        <v>98.435000000000002</v>
+      </c>
+      <c r="F4" s="36">
+        <v>105.05500000000001</v>
+      </c>
+      <c r="G4" s="36">
         <v>111.191</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="36">
         <v>122.096</v>
       </c>
-      <c r="K4" s="48">
+      <c r="I4" s="36">
+        <v>130.99299999999999</v>
+      </c>
+      <c r="J4" s="36">
+        <v>142.02600000000001</v>
+      </c>
+      <c r="K4" s="36">
         <v>151.179</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="36">
         <v>163.18100000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="R4" s="36">
+        <v>369.34899999999999</v>
+      </c>
+      <c r="S4" s="36">
+        <f>+SUM(G4:J4)</f>
+        <v>506.30599999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="48">
+      <c r="E5" s="36">
+        <v>14.545999999999999</v>
+      </c>
+      <c r="F5" s="36">
+        <v>17.852</v>
+      </c>
+      <c r="G5" s="36">
         <v>15.686999999999999</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="36">
         <v>17.484999999999999</v>
       </c>
-      <c r="K5" s="48">
+      <c r="I5" s="36">
+        <v>18.675000000000001</v>
+      </c>
+      <c r="J5" s="36">
+        <v>21.753</v>
+      </c>
+      <c r="K5" s="36">
         <v>18.007999999999999</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="36">
         <v>19.402999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
+      <c r="R5" s="36">
+        <v>54.987000000000002</v>
+      </c>
+      <c r="S5" s="36">
+        <f>+SUM(G5:J5)</f>
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="36">
+      <c r="E6" s="33">
+        <f>+E4+E5</f>
+        <v>112.98099999999999</v>
+      </c>
+      <c r="F6" s="33">
+        <f>+F4+F5</f>
+        <v>122.90700000000001</v>
+      </c>
+      <c r="G6" s="33">
         <f>+G4+G5</f>
         <v>126.878</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="33">
         <f>+H4+H5</f>
         <v>139.58100000000002</v>
       </c>
-      <c r="K6" s="36">
+      <c r="I6" s="33">
+        <f>+I4+I5</f>
+        <v>149.66800000000001</v>
+      </c>
+      <c r="J6" s="33">
+        <f>+J4+J5</f>
+        <v>163.779</v>
+      </c>
+      <c r="K6" s="33">
         <f>+K4+K5</f>
         <v>169.18700000000001</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="33">
         <f>+L4+L5</f>
         <v>182.584</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
+      <c r="M6" s="33">
+        <f>+I6*(1+M28)</f>
+        <v>194.56840000000003</v>
+      </c>
+      <c r="N6" s="33">
+        <f t="shared" ref="N6" si="0">+J6*(1+N28)</f>
+        <v>209.63712000000001</v>
+      </c>
+      <c r="R6" s="33">
+        <f>+R4+R5</f>
+        <v>424.33600000000001</v>
+      </c>
+      <c r="S6" s="33">
+        <f>+S4+S5</f>
+        <v>579.90599999999995</v>
+      </c>
+      <c r="T6" s="33">
+        <f>+SUM(K6:N6)</f>
+        <v>755.97652000000005</v>
+      </c>
+      <c r="U6" s="33">
+        <f>+T6*(1+U28)</f>
+        <v>982.76947600000005</v>
+      </c>
+      <c r="V6" s="33">
+        <f t="shared" ref="V6:AB6" si="1">+U6*(1+V28)</f>
+        <v>1228.461845</v>
+      </c>
+      <c r="W6" s="33">
+        <f t="shared" si="1"/>
+        <v>1498.7234509</v>
+      </c>
+      <c r="X6" s="33">
+        <f t="shared" si="1"/>
+        <v>1798.4681410799999</v>
+      </c>
+      <c r="Y6" s="33">
+        <f t="shared" si="1"/>
+        <v>2068.2383622419998</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" si="1"/>
+        <v>2275.0621984661998</v>
+      </c>
+      <c r="AA6" s="33">
+        <f t="shared" si="1"/>
+        <v>2388.8153083895099</v>
+      </c>
+      <c r="AB6" s="33">
+        <f t="shared" si="1"/>
+        <v>2508.2560738089855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="48">
+      <c r="E7" s="53">
+        <v>11.113</v>
+      </c>
+      <c r="F7" s="53">
+        <v>11.124000000000001</v>
+      </c>
+      <c r="G7" s="53">
         <v>10.891</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="53">
         <v>10.871</v>
       </c>
-      <c r="K7" s="48">
+      <c r="I7" s="53">
+        <v>11.558999999999999</v>
+      </c>
+      <c r="J7" s="53">
+        <v>12.164999999999999</v>
+      </c>
+      <c r="K7" s="53">
         <v>13.839</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="53">
         <v>16.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
+      <c r="R7" s="53">
+        <v>40.841000000000001</v>
+      </c>
+      <c r="S7" s="53">
+        <f>+SUM(G7:J7)</f>
+        <v>45.485999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="48">
+      <c r="E8" s="53">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="F8" s="53">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="G8" s="53">
         <v>3.048</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="53">
         <v>3.8250000000000002</v>
       </c>
-      <c r="K8" s="48">
+      <c r="I8" s="53">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="J8" s="53">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="K8" s="53">
         <v>4.9370000000000003</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="53">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="R8" s="53">
+        <v>10.839</v>
+      </c>
+      <c r="S8" s="53">
+        <f>+SUM(G8:J8)</f>
+        <v>14.222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="35">
+      <c r="E9" s="3">
+        <f>+E7+E8</f>
+        <v>14.564</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+F7+F8</f>
+        <v>14.238</v>
+      </c>
+      <c r="G9" s="3">
         <f>+G7+G8</f>
         <v>13.939</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="3">
         <f>+H7+H8</f>
         <v>14.696000000000002</v>
       </c>
-      <c r="K9" s="35">
+      <c r="I9" s="3">
+        <f>+I7+I8</f>
+        <v>15.084</v>
+      </c>
+      <c r="J9" s="3">
+        <f>+J7+J8</f>
+        <v>15.988999999999999</v>
+      </c>
+      <c r="K9" s="3">
         <f>+K7+K8</f>
         <v>18.776</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="3">
         <f>+L7+L8</f>
         <v>21.369999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+      <c r="M9" s="3">
+        <f>+M6*(1-M23)</f>
+        <v>21.402524</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9" si="2">+N6*(1-N23)</f>
+        <v>23.060083199999998</v>
+      </c>
+      <c r="R9" s="3">
+        <f>+R7+R8</f>
+        <v>51.68</v>
+      </c>
+      <c r="S9" s="3">
+        <f>+S7+S8</f>
+        <v>59.707999999999998</v>
+      </c>
+      <c r="T9" s="3">
+        <f>+SUM(K9:N9)</f>
+        <v>84.608607199999994</v>
+      </c>
+      <c r="U9" s="3">
+        <f>+U6*(1-U23)</f>
+        <v>108.10464236</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" ref="V9:AB9" si="3">+V6*(1-V23)</f>
+        <v>135.13080294999997</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="3"/>
+        <v>164.85957959899997</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="3"/>
+        <v>197.83149551879995</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="3"/>
+        <v>227.50621984661996</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="3"/>
+        <v>250.25684183128195</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="3"/>
+        <v>262.76968392284607</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="3"/>
+        <v>275.90816811898839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="36">
+      <c r="E10" s="33">
+        <f>+E6-E9</f>
+        <v>98.417000000000002</v>
+      </c>
+      <c r="F10" s="33">
+        <f>+F6-F9</f>
+        <v>108.66900000000001</v>
+      </c>
+      <c r="G10" s="33">
         <f>+G6-G9</f>
         <v>112.93899999999999</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="33">
         <f>+H6-H9</f>
         <v>124.88500000000002</v>
       </c>
-      <c r="K10" s="36">
+      <c r="I10" s="33">
+        <f>+I6-I9</f>
+        <v>134.584</v>
+      </c>
+      <c r="J10" s="33">
+        <f>+J6-J9</f>
+        <v>147.79</v>
+      </c>
+      <c r="K10" s="33">
         <f>+K6-K9</f>
         <v>150.411</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="33">
         <f>+L6-L9</f>
         <v>161.214</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35" t="s">
+      <c r="M10" s="33">
+        <f>+M6-M9</f>
+        <v>173.16587600000003</v>
+      </c>
+      <c r="N10" s="33">
+        <f t="shared" ref="N10" si="4">+N6-N9</f>
+        <v>186.5770368</v>
+      </c>
+      <c r="R10" s="33">
+        <f>+R6-R9</f>
+        <v>372.65600000000001</v>
+      </c>
+      <c r="S10" s="33">
+        <f>+S6-S9</f>
+        <v>520.19799999999998</v>
+      </c>
+      <c r="T10" s="33">
+        <f>+T6-T9</f>
+        <v>671.36791280000011</v>
+      </c>
+      <c r="U10" s="33">
+        <f t="shared" ref="U10:AB10" si="5">+U6-U9</f>
+        <v>874.6648336400001</v>
+      </c>
+      <c r="V10" s="33">
+        <f t="shared" si="5"/>
+        <v>1093.3310420500002</v>
+      </c>
+      <c r="W10" s="33">
+        <f t="shared" si="5"/>
+        <v>1333.863871301</v>
+      </c>
+      <c r="X10" s="33">
+        <f t="shared" si="5"/>
+        <v>1600.6366455611999</v>
+      </c>
+      <c r="Y10" s="33">
+        <f t="shared" si="5"/>
+        <v>1840.7321423953799</v>
+      </c>
+      <c r="Z10" s="33">
+        <f t="shared" si="5"/>
+        <v>2024.8053566349179</v>
+      </c>
+      <c r="AA10" s="33">
+        <f t="shared" si="5"/>
+        <v>2126.0456244666639</v>
+      </c>
+      <c r="AB10" s="33">
+        <f t="shared" si="5"/>
+        <v>2232.3479056899973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="35">
+      <c r="E11" s="3">
+        <v>81.08</v>
+      </c>
+      <c r="F11" s="3">
+        <v>81.513000000000005</v>
+      </c>
+      <c r="G11" s="3">
         <v>86.537000000000006</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="3">
         <v>92.116</v>
       </c>
-      <c r="K11" s="35">
+      <c r="I11" s="3">
+        <v>86.977999999999994</v>
+      </c>
+      <c r="J11" s="3">
+        <v>90.762</v>
+      </c>
+      <c r="K11" s="3">
         <v>92.424000000000007</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="3">
         <v>97.778000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="35" t="s">
+      <c r="M11" s="3">
+        <v>102</v>
+      </c>
+      <c r="N11" s="3">
+        <v>102</v>
+      </c>
+      <c r="R11" s="3">
+        <v>309.99200000000002</v>
+      </c>
+      <c r="S11" s="3">
+        <f>+SUM(G11:J11)</f>
+        <v>356.39300000000003</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" ref="T11:T13" si="6">+SUM(K11:N11)</f>
+        <v>394.202</v>
+      </c>
+      <c r="U11" s="3">
+        <f>+T11+25</f>
+        <v>419.202</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" ref="V11:AB11" si="7">+U11+25</f>
+        <v>444.202</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="7"/>
+        <v>469.202</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" si="7"/>
+        <v>494.202</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="7"/>
+        <v>519.202</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="7"/>
+        <v>544.202</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="7"/>
+        <v>569.202</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" si="7"/>
+        <v>594.202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="35">
+      <c r="E12" s="3">
+        <v>41.113</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43.68</v>
+      </c>
+      <c r="G12" s="3">
         <v>50.387</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="3">
         <v>49.006999999999998</v>
       </c>
-      <c r="K12" s="35">
+      <c r="I12" s="3">
+        <v>49.058</v>
+      </c>
+      <c r="J12" s="3">
+        <v>52.387999999999998</v>
+      </c>
+      <c r="K12" s="3">
         <v>54.14</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="3">
         <v>61.273000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
+      <c r="M12" s="3">
+        <v>70</v>
+      </c>
+      <c r="N12" s="3">
+        <v>70</v>
+      </c>
+      <c r="R12" s="3">
+        <v>156.143</v>
+      </c>
+      <c r="S12" s="3">
+        <f>+SUM(G12:J12)</f>
+        <v>200.84</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="6"/>
+        <v>255.41300000000001</v>
+      </c>
+      <c r="U12" s="3">
+        <f>+U6*0.33</f>
+        <v>324.31392708000004</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" ref="V12:AB12" si="8">+V6*0.33</f>
+        <v>405.39240885000004</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="8"/>
+        <v>494.57873879700003</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="8"/>
+        <v>593.49448655640003</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="8"/>
+        <v>682.51865953985998</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="8"/>
+        <v>750.77052549384598</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="8"/>
+        <v>788.30905176853832</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" si="8"/>
+        <v>827.72450435696533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="35">
+      <c r="E13" s="3">
+        <v>33.186</v>
+      </c>
+      <c r="F13" s="3">
+        <v>29.75</v>
+      </c>
+      <c r="G13" s="3">
         <v>34.247999999999998</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="3">
         <v>37.819000000000003</v>
       </c>
-      <c r="K13" s="35">
+      <c r="I13" s="3">
+        <v>38.814999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>39.523000000000003</v>
+      </c>
+      <c r="K13" s="3">
         <v>57.487000000000002</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="3">
         <v>43.167999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
+      <c r="M13" s="3">
+        <v>46</v>
+      </c>
+      <c r="N13" s="3">
+        <v>46</v>
+      </c>
+      <c r="R13" s="3">
+        <v>117.932</v>
+      </c>
+      <c r="S13" s="3">
+        <f>+SUM(G13:J13)</f>
+        <v>150.405</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="6"/>
+        <v>192.655</v>
+      </c>
+      <c r="U13" s="3">
+        <f>+T13+35</f>
+        <v>227.655</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" ref="V13:AB13" si="9">+U13+35</f>
+        <v>262.65499999999997</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="9"/>
+        <v>297.65499999999997</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="9"/>
+        <v>332.65499999999997</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="9"/>
+        <v>367.65499999999997</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="9"/>
+        <v>402.65499999999997</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="9"/>
+        <v>437.65499999999997</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="9"/>
+        <v>472.65499999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="36">
+      <c r="E14" s="33">
+        <f>+E10-SUM(E11:E13)</f>
+        <v>-56.961999999999989</v>
+      </c>
+      <c r="F14" s="33">
+        <f>+F10-SUM(F11:F13)</f>
+        <v>-46.274000000000001</v>
+      </c>
+      <c r="G14" s="33">
         <f>+G10-SUM(G11:G13)</f>
         <v>-58.233000000000004</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="33">
         <f>+H10-SUM(H11:H13)</f>
         <v>-54.056999999999988</v>
       </c>
-      <c r="K14" s="36">
+      <c r="I14" s="33">
+        <f>+I10-SUM(I11:I13)</f>
+        <v>-40.266999999999996</v>
+      </c>
+      <c r="J14" s="33">
+        <f>+J10-SUM(J11:J13)</f>
+        <v>-34.88300000000001</v>
+      </c>
+      <c r="K14" s="33">
         <f>+K10-SUM(K11:K13)</f>
         <v>-53.640000000000015</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="33">
         <f>+L10-SUM(L11:L13)</f>
         <v>-41.005000000000024</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="M14" s="33">
+        <f>+M10-SUM(M11:M13)</f>
+        <v>-44.834123999999974</v>
+      </c>
+      <c r="N14" s="33">
+        <f t="shared" ref="N14" si="10">+N10-SUM(N11:N13)</f>
+        <v>-31.422963199999998</v>
+      </c>
+      <c r="R14" s="33">
+        <f>+R10-SUM(R11:R13)</f>
+        <v>-211.411</v>
+      </c>
+      <c r="S14" s="33">
+        <f>+S10-SUM(S11:S13)</f>
+        <v>-187.44000000000005</v>
+      </c>
+      <c r="T14" s="33">
+        <f>+T10-SUM(T11:T13)</f>
+        <v>-170.90208719999987</v>
+      </c>
+      <c r="U14" s="33">
+        <f t="shared" ref="U14:AB14" si="11">+U10-SUM(U11:U13)</f>
+        <v>-96.506093439999859</v>
+      </c>
+      <c r="V14" s="33">
+        <f t="shared" si="11"/>
+        <v>-18.918366799999831</v>
+      </c>
+      <c r="W14" s="33">
+        <f t="shared" si="11"/>
+        <v>72.428132504000132</v>
+      </c>
+      <c r="X14" s="33">
+        <f t="shared" si="11"/>
+        <v>180.28515900479988</v>
+      </c>
+      <c r="Y14" s="33">
+        <f t="shared" si="11"/>
+        <v>271.35648285551997</v>
+      </c>
+      <c r="Z14" s="33">
+        <f t="shared" si="11"/>
+        <v>327.17783114107192</v>
+      </c>
+      <c r="AA14" s="33">
+        <f t="shared" si="11"/>
+        <v>330.87957269812546</v>
+      </c>
+      <c r="AB14" s="33">
+        <f t="shared" si="11"/>
+        <v>337.76640133303204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="35">
+      <c r="E15" s="3">
+        <v>4.657</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="G15" s="3">
         <v>7.3150000000000004</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="3">
         <v>9.1120000000000001</v>
       </c>
-      <c r="K15" s="35">
+      <c r="I15" s="3">
+        <v>10.874000000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11.813000000000001</v>
+      </c>
+      <c r="K15" s="3">
         <v>12.303000000000001</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="3">
         <v>12.827</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
+      <c r="M15" s="3">
+        <f>+AVERAGE(G15:L15)</f>
+        <v>10.707333333333333</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:N16" si="12">+AVERAGE(H15:M15)</f>
+        <v>11.272722222222223</v>
+      </c>
+      <c r="R15" s="3">
+        <v>14.496</v>
+      </c>
+      <c r="S15" s="3">
+        <f>+SUM(G15:J15)</f>
+        <v>39.114000000000004</v>
+      </c>
+      <c r="T15" s="3">
+        <f>+SUM(K15:N15)</f>
+        <v>47.110055555555554</v>
+      </c>
+      <c r="U15" s="3">
+        <v>10</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-10</v>
+      </c>
+      <c r="W15" s="3">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="35">
+      <c r="E16" s="3">
+        <f>2.661-0.756</f>
+        <v>1.905</v>
+      </c>
+      <c r="F16" s="3">
+        <f>-1.024-0.693</f>
+        <v>-1.7170000000000001</v>
+      </c>
+      <c r="G16" s="3">
         <f>-0.748-1.486</f>
         <v>-2.234</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="3">
         <f>-1.33-0.917</f>
         <v>-2.2469999999999999</v>
       </c>
-      <c r="K16" s="35">
+      <c r="I16" s="3">
+        <f>0.569-0.743</f>
+        <v>-0.17400000000000004</v>
+      </c>
+      <c r="J16" s="3">
+        <f>-11.318-1.416</f>
+        <v>-12.734</v>
+      </c>
+      <c r="K16" s="3">
         <v>-0.56699999999999995</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="3">
         <v>1.032</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
+      <c r="M16" s="3">
+        <f>+AVERAGE(G16:L16)</f>
+        <v>-2.8206666666666664</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="12"/>
+        <v>-2.9184444444444444</v>
+      </c>
+      <c r="R16" s="3">
+        <f>21.585-2.468</f>
+        <v>19.117000000000001</v>
+      </c>
+      <c r="S16" s="3">
+        <f>+SUM(G16:J16)</f>
+        <v>-17.388999999999999</v>
+      </c>
+      <c r="T16" s="3">
+        <f>+SUM(K16:N16)</f>
+        <v>-5.274111111111111</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="35">
+      <c r="E17" s="3">
+        <f>+E14+E15+E16</f>
+        <v>-50.399999999999991</v>
+      </c>
+      <c r="F17" s="3">
+        <f>+F14+F15+F16</f>
+        <v>-41.741999999999997</v>
+      </c>
+      <c r="G17" s="3">
         <f>+G14+G15+G16</f>
         <v>-53.152000000000008</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="3">
         <f>+H14+H15+H16</f>
         <v>-47.191999999999986</v>
       </c>
-      <c r="K17" s="35">
+      <c r="I17" s="3">
+        <f>+I14+I15+I16</f>
+        <v>-29.566999999999993</v>
+      </c>
+      <c r="J17" s="3">
+        <f>+J14+J15+J16</f>
+        <v>-35.804000000000009</v>
+      </c>
+      <c r="K17" s="3">
         <f>+K14+K15+K16</f>
         <v>-41.904000000000018</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="3">
         <f>+L14+L15+L16</f>
         <v>-27.146000000000026</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
+      <c r="M17" s="3">
+        <f>+M14+M15+M16</f>
+        <v>-36.947457333333311</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ref="N17" si="13">+N14+N15+N16</f>
+        <v>-23.06868542222222</v>
+      </c>
+      <c r="R17" s="3">
+        <f>+R14+R15+R16</f>
+        <v>-177.798</v>
+      </c>
+      <c r="S17" s="3">
+        <f>+S14+S15+S16</f>
+        <v>-165.71500000000006</v>
+      </c>
+      <c r="T17" s="3">
+        <f>+T14+T15+T16</f>
+        <v>-129.0661427555554</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" ref="U17:AB17" si="14">+U14+U15+U16</f>
+        <v>-86.506093439999859</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="14"/>
+        <v>-28.918366799999831</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="14"/>
+        <v>77.428132504000132</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="14"/>
+        <v>175.28515900479988</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="14"/>
+        <v>272.35648285551997</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="14"/>
+        <v>329.17783114107192</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="14"/>
+        <v>331.87957269812546</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="14"/>
+        <v>339.76640133303204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="35">
-        <v>1.486</v>
-      </c>
-      <c r="H18" s="35">
+      <c r="E18" s="3">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.379</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1.486</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4.016</v>
       </c>
-      <c r="K18" s="35">
+      <c r="I18" s="3">
+        <v>-256.78800000000001</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1.7669999999999999</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12.71</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="3">
         <v>39.42</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="36" t="s">
+      <c r="M18" s="3">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-2.8980000000000001</v>
+      </c>
+      <c r="S18" s="3">
+        <f>+SUM(G18:J18)</f>
+        <v>-264.05700000000002</v>
+      </c>
+      <c r="T18" s="3">
+        <f>+SUM(K18:N18)</f>
+        <v>46.71</v>
+      </c>
+      <c r="U18" s="3">
+        <f>-(+U17*U26)</f>
+        <v>1.7301218687999973</v>
+      </c>
+      <c r="V18" s="3">
+        <f>-(+V17*V26)</f>
+        <v>2.8918366799999831</v>
+      </c>
+      <c r="W18" s="3">
+        <f>-(+W17*W26)</f>
+        <v>-15.485626500800027</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" ref="X18:AB18" si="15">-(+X17*X26)</f>
+        <v>-35.057031800959976</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="15"/>
+        <v>-54.471296571103998</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="15"/>
+        <v>-65.83556622821439</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="15"/>
+        <v>-66.3759145396251</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="15"/>
+        <v>-67.953280266606413</v>
+      </c>
+    </row>
+    <row r="19" spans="2:98" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="36">
+      <c r="E19" s="33">
+        <f>+E17+E18</f>
+        <v>-50.464999999999989</v>
+      </c>
+      <c r="F19" s="33">
+        <f>+F17+F18</f>
+        <v>-42.120999999999995</v>
+      </c>
+      <c r="G19" s="33">
         <f>+G17+G18</f>
-        <v>-51.666000000000011</v>
-      </c>
-      <c r="H19" s="36">
+        <v>-54.638000000000005</v>
+      </c>
+      <c r="H19" s="33">
         <f>+H17+H18</f>
         <v>-51.207999999999984</v>
       </c>
-      <c r="K19" s="36">
+      <c r="I19" s="33">
+        <f>+I17+I18</f>
+        <v>-286.35500000000002</v>
+      </c>
+      <c r="J19" s="33">
+        <f>+J17+J18</f>
+        <v>-37.571000000000012</v>
+      </c>
+      <c r="K19" s="33">
         <f>+K17+K18</f>
         <v>-54.614000000000019</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="33">
         <f>+L17+L18</f>
         <v>12.273999999999976</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="M19" s="33">
+        <f>+M17+M18</f>
+        <v>-26.947457333333311</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" ref="N19" si="16">+N17+N18</f>
+        <v>-13.06868542222222</v>
+      </c>
+      <c r="R19" s="33">
+        <f>+R17+R18</f>
+        <v>-180.696</v>
+      </c>
+      <c r="S19" s="33">
+        <f>+S17+S18</f>
+        <v>-429.77200000000005</v>
+      </c>
+      <c r="T19" s="33">
+        <f>+T17+T18</f>
+        <v>-82.356142755555396</v>
+      </c>
+      <c r="U19" s="33">
+        <f t="shared" ref="U19:AB19" si="17">+U17+U18</f>
+        <v>-84.775971571199861</v>
+      </c>
+      <c r="V19" s="33">
+        <f t="shared" si="17"/>
+        <v>-26.026530119999848</v>
+      </c>
+      <c r="W19" s="33">
+        <f t="shared" si="17"/>
+        <v>61.942506003200108</v>
+      </c>
+      <c r="X19" s="33">
+        <f t="shared" si="17"/>
+        <v>140.2281272038399</v>
+      </c>
+      <c r="Y19" s="33">
+        <f t="shared" si="17"/>
+        <v>217.88518628441597</v>
+      </c>
+      <c r="Z19" s="33">
+        <f t="shared" si="17"/>
+        <v>263.34226491285756</v>
+      </c>
+      <c r="AA19" s="33">
+        <f t="shared" si="17"/>
+        <v>265.50365815850034</v>
+      </c>
+      <c r="AB19" s="33">
+        <f t="shared" si="17"/>
+        <v>271.81312106642565</v>
+      </c>
+      <c r="AC19" s="33">
+        <f>+AB19*(1+$AE$31)</f>
+        <v>282.68564590908267</v>
+      </c>
+      <c r="AD19" s="33">
+        <f t="shared" ref="AD19:CO19" si="18">+AC19*(1+$AE$31)</f>
+        <v>293.993071745446</v>
+      </c>
+      <c r="AE19" s="33">
+        <f t="shared" si="18"/>
+        <v>305.75279461526384</v>
+      </c>
+      <c r="AF19" s="33">
+        <f t="shared" si="18"/>
+        <v>317.98290639987442</v>
+      </c>
+      <c r="AG19" s="33">
+        <f t="shared" si="18"/>
+        <v>330.70222265586943</v>
+      </c>
+      <c r="AH19" s="33">
+        <f t="shared" si="18"/>
+        <v>343.93031156210424</v>
+      </c>
+      <c r="AI19" s="33">
+        <f t="shared" si="18"/>
+        <v>357.68752402458841</v>
+      </c>
+      <c r="AJ19" s="33">
+        <f t="shared" si="18"/>
+        <v>371.99502498557194</v>
+      </c>
+      <c r="AK19" s="33">
+        <f t="shared" si="18"/>
+        <v>386.87482598499486</v>
+      </c>
+      <c r="AL19" s="33">
+        <f t="shared" si="18"/>
+        <v>402.34981902439466</v>
+      </c>
+      <c r="AM19" s="33">
+        <f t="shared" si="18"/>
+        <v>418.44381178537049</v>
+      </c>
+      <c r="AN19" s="33">
+        <f t="shared" si="18"/>
+        <v>435.18156425678529</v>
+      </c>
+      <c r="AO19" s="33">
+        <f t="shared" si="18"/>
+        <v>452.58882682705672</v>
+      </c>
+      <c r="AP19" s="33">
+        <f t="shared" si="18"/>
+        <v>470.69237990013903</v>
+      </c>
+      <c r="AQ19" s="33">
+        <f t="shared" si="18"/>
+        <v>489.52007509614458</v>
+      </c>
+      <c r="AR19" s="33">
+        <f t="shared" si="18"/>
+        <v>509.10087809999038</v>
+      </c>
+      <c r="AS19" s="33">
+        <f t="shared" si="18"/>
+        <v>529.46491322399004</v>
+      </c>
+      <c r="AT19" s="33">
+        <f t="shared" si="18"/>
+        <v>550.64350975294963</v>
+      </c>
+      <c r="AU19" s="33">
+        <f t="shared" si="18"/>
+        <v>572.66925014306764</v>
+      </c>
+      <c r="AV19" s="33">
+        <f t="shared" si="18"/>
+        <v>595.57602014879035</v>
+      </c>
+      <c r="AW19" s="33">
+        <f t="shared" si="18"/>
+        <v>619.39906095474203</v>
+      </c>
+      <c r="AX19" s="33">
+        <f t="shared" si="18"/>
+        <v>644.17502339293173</v>
+      </c>
+      <c r="AY19" s="33">
+        <f t="shared" si="18"/>
+        <v>669.94202432864904</v>
+      </c>
+      <c r="AZ19" s="33">
+        <f t="shared" si="18"/>
+        <v>696.73970530179497</v>
+      </c>
+      <c r="BA19" s="33">
+        <f t="shared" si="18"/>
+        <v>724.60929351386676</v>
+      </c>
+      <c r="BB19" s="33">
+        <f t="shared" si="18"/>
+        <v>753.59366525442147</v>
+      </c>
+      <c r="BC19" s="33">
+        <f t="shared" si="18"/>
+        <v>783.73741186459836</v>
+      </c>
+      <c r="BD19" s="33">
+        <f t="shared" si="18"/>
+        <v>815.08690833918229</v>
+      </c>
+      <c r="BE19" s="33">
+        <f t="shared" si="18"/>
+        <v>847.69038467274959</v>
+      </c>
+      <c r="BF19" s="33">
+        <f t="shared" si="18"/>
+        <v>881.59800005965963</v>
+      </c>
+      <c r="BG19" s="33">
+        <f t="shared" si="18"/>
+        <v>916.86192006204601</v>
+      </c>
+      <c r="BH19" s="33">
+        <f t="shared" si="18"/>
+        <v>953.53639686452789</v>
+      </c>
+      <c r="BI19" s="33">
+        <f t="shared" si="18"/>
+        <v>991.67785273910908</v>
+      </c>
+      <c r="BJ19" s="33">
+        <f t="shared" si="18"/>
+        <v>1031.3449668486735</v>
+      </c>
+      <c r="BK19" s="33">
+        <f t="shared" si="18"/>
+        <v>1072.5987655226204</v>
+      </c>
+      <c r="BL19" s="33">
+        <f t="shared" si="18"/>
+        <v>1115.5027161435253</v>
+      </c>
+      <c r="BM19" s="33">
+        <f t="shared" si="18"/>
+        <v>1160.1228247892664</v>
+      </c>
+      <c r="BN19" s="33">
+        <f t="shared" si="18"/>
+        <v>1206.527737780837</v>
+      </c>
+      <c r="BO19" s="33">
+        <f t="shared" si="18"/>
+        <v>1254.7888472920706</v>
+      </c>
+      <c r="BP19" s="33">
+        <f t="shared" si="18"/>
+        <v>1304.9804011837534</v>
+      </c>
+      <c r="BQ19" s="33">
+        <f t="shared" si="18"/>
+        <v>1357.1796172311035</v>
+      </c>
+      <c r="BR19" s="33">
+        <f t="shared" si="18"/>
+        <v>1411.4668019203477</v>
+      </c>
+      <c r="BS19" s="33">
+        <f t="shared" si="18"/>
+        <v>1467.9254739971616</v>
+      </c>
+      <c r="BT19" s="33">
+        <f t="shared" si="18"/>
+        <v>1526.642492957048</v>
+      </c>
+      <c r="BU19" s="33">
+        <f t="shared" si="18"/>
+        <v>1587.7081926753301</v>
+      </c>
+      <c r="BV19" s="33">
+        <f t="shared" si="18"/>
+        <v>1651.2165203823433</v>
+      </c>
+      <c r="BW19" s="33">
+        <f t="shared" si="18"/>
+        <v>1717.265181197637</v>
+      </c>
+      <c r="BX19" s="33">
+        <f t="shared" si="18"/>
+        <v>1785.9557884455426</v>
+      </c>
+      <c r="BY19" s="33">
+        <f t="shared" si="18"/>
+        <v>1857.3940199833644</v>
+      </c>
+      <c r="BZ19" s="33">
+        <f t="shared" si="18"/>
+        <v>1931.689780782699</v>
+      </c>
+      <c r="CA19" s="33">
+        <f t="shared" si="18"/>
+        <v>2008.957372014007</v>
+      </c>
+      <c r="CB19" s="33">
+        <f t="shared" si="18"/>
+        <v>2089.3156668945671</v>
+      </c>
+      <c r="CC19" s="33">
+        <f t="shared" si="18"/>
+        <v>2172.88829357035</v>
+      </c>
+      <c r="CD19" s="33">
+        <f t="shared" si="18"/>
+        <v>2259.803825313164</v>
+      </c>
+      <c r="CE19" s="33">
+        <f t="shared" si="18"/>
+        <v>2350.1959783256907</v>
+      </c>
+      <c r="CF19" s="33">
+        <f t="shared" si="18"/>
+        <v>2444.2038174587183</v>
+      </c>
+      <c r="CG19" s="33">
+        <f t="shared" si="18"/>
+        <v>2541.9719701570671</v>
+      </c>
+      <c r="CH19" s="33">
+        <f t="shared" si="18"/>
+        <v>2643.6508489633497</v>
+      </c>
+      <c r="CI19" s="33">
+        <f t="shared" si="18"/>
+        <v>2749.3968829218838</v>
+      </c>
+      <c r="CJ19" s="33">
+        <f t="shared" si="18"/>
+        <v>2859.3727582387592</v>
+      </c>
+      <c r="CK19" s="33">
+        <f t="shared" si="18"/>
+        <v>2973.7476685683096</v>
+      </c>
+      <c r="CL19" s="33">
+        <f t="shared" si="18"/>
+        <v>3092.6975753110419</v>
+      </c>
+      <c r="CM19" s="33">
+        <f t="shared" si="18"/>
+        <v>3216.4054783234837</v>
+      </c>
+      <c r="CN19" s="33">
+        <f t="shared" si="18"/>
+        <v>3345.0616974564232</v>
+      </c>
+      <c r="CO19" s="33">
+        <f t="shared" si="18"/>
+        <v>3478.8641653546802</v>
+      </c>
+      <c r="CP19" s="33">
+        <f t="shared" ref="CP19:CT19" si="19">+CO19*(1+$AE$31)</f>
+        <v>3618.0187319688675</v>
+      </c>
+      <c r="CQ19" s="33">
+        <f t="shared" si="19"/>
+        <v>3762.7394812476223</v>
+      </c>
+      <c r="CR19" s="33">
+        <f t="shared" si="19"/>
+        <v>3913.2490604975274</v>
+      </c>
+      <c r="CS19" s="33">
+        <f t="shared" si="19"/>
+        <v>4069.7790229174284</v>
+      </c>
+      <c r="CT19" s="33">
+        <f t="shared" si="19"/>
+        <v>4232.5701838341256</v>
+      </c>
+    </row>
+    <row r="20" spans="2:98" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="34">
+      <c r="E20" s="27">
+        <f>+E19/E21</f>
+        <v>-0.33895743637621478</v>
+      </c>
+      <c r="F20" s="27">
+        <f>+F19/F21</f>
+        <v>-0.28055790532394603</v>
+      </c>
+      <c r="G20" s="27">
         <f>+G19/G21</f>
-        <v>-0.34059805395142795</v>
-      </c>
-      <c r="H20" s="34">
+        <v>-0.36019038578171558</v>
+      </c>
+      <c r="H20" s="27">
         <f>+H19/H21</f>
         <v>-0.3332899429850823</v>
       </c>
-      <c r="K20" s="34">
+      <c r="I20" s="27">
+        <f>+I19/I21</f>
+        <v>-1.8459867331085658</v>
+      </c>
+      <c r="J20" s="27">
+        <f>+J19/J21</f>
+        <v>-0.23991545392430452</v>
+      </c>
+      <c r="K20" s="27">
         <f>+K19/K21</f>
         <v>-0.34531509828840973</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="27">
         <f>+L19/L21</f>
         <v>7.6867676622180886E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+      <c r="M20" s="27">
+        <f>+M19/M21</f>
+        <v>-0.16876229722084779</v>
+      </c>
+      <c r="N20" s="27">
+        <f t="shared" ref="N20" si="20">+N19/N21</f>
+        <v>-8.1844507488381055E-2</v>
+      </c>
+      <c r="R20" s="27">
+        <f>+R19/R21</f>
+        <v>-1.2175705997695525</v>
+      </c>
+      <c r="S20" s="27">
+        <f>+S19/S21</f>
+        <v>-2.744375834126219</v>
+      </c>
+      <c r="T20" s="27">
+        <f>+SUM(K20:N20)</f>
+        <v>-0.51905422637545762</v>
+      </c>
+      <c r="U20" s="27">
+        <f>+U19/U21</f>
+        <v>-0.53092162034106272</v>
+      </c>
+      <c r="V20" s="27">
+        <f>+V19/V21</f>
+        <v>-0.1629948591218513</v>
+      </c>
+      <c r="W20" s="27">
+        <f>+W19/W21</f>
+        <v>0.3879237836582608</v>
+      </c>
+      <c r="X20" s="27">
+        <f>+X19/X21</f>
+        <v>0.87819865856597956</v>
+      </c>
+      <c r="Y20" s="27">
+        <f>+Y19/Y21</f>
+        <v>1.3645370734947173</v>
+      </c>
+      <c r="Z20" s="27">
+        <f>+Z19/Z21</f>
+        <v>1.6492185155836945</v>
+      </c>
+      <c r="AA20" s="27">
+        <f>+AA19/AA21</f>
+        <v>1.6627545492368991</v>
+      </c>
+      <c r="AB20" s="27">
+        <f>+AB19/AB21</f>
+        <v>1.7022684611210486</v>
+      </c>
+    </row>
+    <row r="21" spans="2:98" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="35">
+      <c r="E21" s="28">
+        <v>148.88300000000001</v>
+      </c>
+      <c r="F21" s="28">
+        <v>150.13300000000001</v>
+      </c>
+      <c r="G21" s="28">
         <v>151.69200000000001</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="28">
         <v>153.64400000000001</v>
       </c>
-      <c r="K21" s="35">
+      <c r="I21" s="28">
+        <v>155.12299999999999</v>
+      </c>
+      <c r="J21" s="28">
+        <v>156.601</v>
+      </c>
+      <c r="K21" s="28">
         <v>158.15700000000001</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="28">
         <v>159.67699999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
+      <c r="M21" s="28">
+        <f>+L21</f>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="N21" s="28">
+        <f t="shared" ref="N21" si="21">+M21</f>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="R21" s="28">
+        <v>148.40700000000001</v>
+      </c>
+      <c r="S21" s="28">
+        <f>+J21</f>
+        <v>156.601</v>
+      </c>
+      <c r="T21" s="28">
+        <f>+L21</f>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="U21" s="28">
+        <f>+T21</f>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="V21" s="28">
+        <f t="shared" ref="V21:AB21" si="22">+U21</f>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="W21" s="28">
+        <f t="shared" si="22"/>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="X21" s="28">
+        <f t="shared" si="22"/>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="Y21" s="28">
+        <f t="shared" si="22"/>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="Z21" s="28">
+        <f t="shared" si="22"/>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="AA21" s="28">
+        <f t="shared" si="22"/>
+        <v>159.67699999999999</v>
+      </c>
+      <c r="AB21" s="28">
+        <f t="shared" si="22"/>
+        <v>159.67699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="39">
+      <c r="E23" s="31">
+        <f>E10/E6</f>
+        <v>0.87109336968162798</v>
+      </c>
+      <c r="F23" s="31">
+        <f>F10/F6</f>
+        <v>0.88415631331006372</v>
+      </c>
+      <c r="G23" s="31">
         <f>G10/G6</f>
         <v>0.89013855830009925</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="31">
         <f>H10/H6</f>
         <v>0.89471346386685868</v>
       </c>
-      <c r="K23" s="39">
+      <c r="I23" s="31">
+        <f>I10/I6</f>
+        <v>0.89921693347943443</v>
+      </c>
+      <c r="J23" s="31">
+        <f>J10/J6</f>
+        <v>0.90237454130260897</v>
+      </c>
+      <c r="K23" s="31">
         <f>K10/K6</f>
         <v>0.88902220619787564</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="31">
         <f>L10/L6</f>
         <v>0.88295798098409495</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="39" t="s">
+      <c r="M23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="R23" s="31">
+        <f>R10/R6</f>
+        <v>0.87820972059877078</v>
+      </c>
+      <c r="S23" s="31">
+        <f>S10/S6</f>
+        <v>0.89703848554765775</v>
+      </c>
+      <c r="T23" s="31">
+        <f>T10/T6</f>
+        <v>0.88808037688789598</v>
+      </c>
+      <c r="U23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="V23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="W23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="X23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="Y23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="Z23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="AA23" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="AB23" s="31">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="39">
+      <c r="E24" s="31">
+        <f>E14/E6</f>
+        <v>-0.50417326807162255</v>
+      </c>
+      <c r="F24" s="31">
+        <f>F14/F6</f>
+        <v>-0.37649604985883633</v>
+      </c>
+      <c r="G24" s="31">
         <f>G14/G6</f>
         <v>-0.45896845788868051</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="31">
         <f>H14/H6</f>
         <v>-0.3872805037934961</v>
       </c>
-      <c r="K24" s="39">
+      <c r="I24" s="31">
+        <f>I14/I6</f>
+        <v>-0.26904214661784748</v>
+      </c>
+      <c r="J24" s="31">
+        <f>J14/J6</f>
+        <v>-0.21298823414479273</v>
+      </c>
+      <c r="K24" s="31">
         <f>K14/K6</f>
         <v>-0.31704563589401086</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="31">
         <f>L14/L6</f>
         <v>-0.22458156245892313</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
+      <c r="M24" s="31">
+        <f>M14/M6</f>
+        <v>-0.23042859991653306</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" ref="N24" si="23">N14/N6</f>
+        <v>-0.14989217176805328</v>
+      </c>
+      <c r="R24" s="31">
+        <f>R14/R6</f>
+        <v>-0.49821603634855394</v>
+      </c>
+      <c r="S24" s="31">
+        <f>S14/S6</f>
+        <v>-0.32322479850182628</v>
+      </c>
+      <c r="T24" s="31">
+        <f>T14/T6</f>
+        <v>-0.22606798316963583</v>
+      </c>
+      <c r="U24" s="31">
+        <f t="shared" ref="U24:AB24" si="24">U14/U6</f>
+        <v>-9.8198098126523262E-2</v>
+      </c>
+      <c r="V24" s="31">
+        <f t="shared" si="24"/>
+        <v>-1.5400044272437154E-2</v>
+      </c>
+      <c r="W24" s="31">
+        <f t="shared" si="24"/>
+        <v>4.832654914454447E-2</v>
+      </c>
+      <c r="X24" s="31">
+        <f t="shared" si="24"/>
+        <v>0.10024373236688901</v>
+      </c>
+      <c r="Y24" s="31">
+        <f t="shared" si="24"/>
+        <v>0.13120174531593431</v>
+      </c>
+      <c r="Z24" s="31">
+        <f t="shared" si="24"/>
+        <v>0.14381049949388131</v>
+      </c>
+      <c r="AA24" s="31">
+        <f t="shared" si="24"/>
+        <v>0.13851199443342385</v>
+      </c>
+      <c r="AB24" s="31">
+        <f t="shared" si="24"/>
+        <v>0.13466184926649336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="39">
+      <c r="E25" s="31">
+        <f>E19/E6</f>
+        <v>-0.44666802382701509</v>
+      </c>
+      <c r="F25" s="31">
+        <f>F19/F6</f>
+        <v>-0.34270627384933317</v>
+      </c>
+      <c r="G25" s="31">
         <f>G19/G6</f>
-        <v>-0.40721007582086738</v>
-      </c>
-      <c r="H25" s="39">
+        <v>-0.43063415249294601</v>
+      </c>
+      <c r="H25" s="31">
         <f>H19/H6</f>
         <v>-0.36686941632457126</v>
       </c>
-      <c r="K25" s="39">
+      <c r="I25" s="31">
+        <f>I19/I6</f>
+        <v>-1.9132680332469199</v>
+      </c>
+      <c r="J25" s="31">
+        <f>J19/J6</f>
+        <v>-0.22940059470383878</v>
+      </c>
+      <c r="K25" s="31">
         <f>K19/K6</f>
         <v>-0.32280257939439799</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="31">
         <f>L19/L6</f>
         <v>6.7223853130613728E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="39" t="s">
+      <c r="M25" s="31">
+        <f>M19/M6</f>
+        <v>-0.13849863252888603</v>
+      </c>
+      <c r="N25" s="31">
+        <f t="shared" ref="N25" si="25">N19/N6</f>
+        <v>-6.2339558100312671E-2</v>
+      </c>
+      <c r="R25" s="31">
+        <f>R19/R6</f>
+        <v>-0.42583235926247121</v>
+      </c>
+      <c r="S25" s="31">
+        <f>S19/S6</f>
+        <v>-0.74110631723072373</v>
+      </c>
+      <c r="T25" s="31">
+        <f>T19/T6</f>
+        <v>-0.10894008024952334</v>
+      </c>
+      <c r="U25" s="31">
+        <f t="shared" ref="U25:AB25" si="26">U19/U6</f>
+        <v>-8.6262316485702345E-2</v>
+      </c>
+      <c r="V25" s="31">
+        <f t="shared" si="26"/>
+        <v>-2.1186274710876224E-2</v>
+      </c>
+      <c r="W25" s="31">
+        <f t="shared" si="26"/>
+        <v>4.1330177335920745E-2</v>
+      </c>
+      <c r="X25" s="31">
+        <f t="shared" si="26"/>
+        <v>7.7970870876606896E-2</v>
+      </c>
+      <c r="Y25" s="31">
+        <f t="shared" si="26"/>
+        <v>0.10534819886438299</v>
+      </c>
+      <c r="Z25" s="31">
+        <f t="shared" si="26"/>
+        <v>0.11575167707080602</v>
+      </c>
+      <c r="AA25" s="31">
+        <f t="shared" si="26"/>
+        <v>0.11114448958278714</v>
+      </c>
+      <c r="AB25" s="31">
+        <f t="shared" si="26"/>
+        <v>0.10836737281519103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="39">
+      <c r="E26" s="31">
+        <f>E18/E17</f>
+        <v>1.2896825396825399E-3</v>
+      </c>
+      <c r="F26" s="31">
+        <f>F18/F17</f>
+        <v>9.0795841119256388E-3</v>
+      </c>
+      <c r="G26" s="31">
         <f>G18/G17</f>
-        <v>-2.7957555689343765E-2</v>
-      </c>
-      <c r="H26" s="39">
+        <v>2.7957555689343765E-2</v>
+      </c>
+      <c r="H26" s="31">
         <f>H18/H17</f>
         <v>8.5099169350737441E-2</v>
       </c>
-      <c r="K26" s="39">
+      <c r="I26" s="31">
+        <f>I18/I17</f>
+        <v>8.6849528190212091</v>
+      </c>
+      <c r="J26" s="31">
+        <f>J18/J17</f>
+        <v>4.9352027706401506E-2</v>
+      </c>
+      <c r="K26" s="31">
         <f>K18/K17</f>
         <v>0.30331233295150811</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="31">
         <f>L18/L17</f>
         <v>-1.4521476460620335</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
+      <c r="M26" s="31">
+        <f>M18/M17</f>
+        <v>-0.27065461933636731</v>
+      </c>
+      <c r="N26" s="31">
+        <f t="shared" ref="N26" si="27">N18/N17</f>
+        <v>-0.43348807341951667</v>
+      </c>
+      <c r="R26" s="31">
+        <f>R18/R17</f>
+        <v>1.6299395943711402E-2</v>
+      </c>
+      <c r="S26" s="31">
+        <f>S18/S17</f>
+        <v>1.5934405455148895</v>
+      </c>
+      <c r="T26" s="31">
+        <f>T18/T17</f>
+        <v>-0.36190746080067121</v>
+      </c>
+      <c r="U26" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="V26" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="W26" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="X26" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="Y26" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="AA26" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="AB26" s="31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:98" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="38">
+      <c r="I28" s="30">
+        <f>+I6/E6-1</f>
+        <v>0.32471831546897278</v>
+      </c>
+      <c r="J28" s="30">
+        <f>+J6/F6-1</f>
+        <v>0.3325441187239131</v>
+      </c>
+      <c r="K28" s="30">
         <f>+K6/G6-1</f>
         <v>0.33346206592159411</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="30">
         <f>+L6/H6-1</f>
         <v>0.30808634412993152</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="39" t="s">
+      <c r="M28" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N28" s="30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S28" s="30">
+        <f>+S6/R6-1</f>
+        <v>0.36661984842200512</v>
+      </c>
+      <c r="T28" s="30">
+        <f>+T6/S6-1</f>
+        <v>0.30361906929743809</v>
+      </c>
+      <c r="U28" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="V28" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="W28" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="X28" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="Z28" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="AA28" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="AB28" s="30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="39">
+      <c r="F29" s="31">
+        <f>+F6/E6-1</f>
+        <v>8.7855480124976904E-2</v>
+      </c>
+      <c r="G29" s="31">
+        <f>+G6/F6-1</f>
+        <v>3.2308981587704455E-2</v>
+      </c>
+      <c r="H29" s="31">
         <f>+H6/G6-1</f>
         <v>0.10011980012295285</v>
       </c>
-      <c r="L29" s="39">
+      <c r="I29" s="31">
+        <f>+I6/H6-1</f>
+        <v>7.2266282660247372E-2</v>
+      </c>
+      <c r="J29" s="31">
+        <f>+J6/I6-1</f>
+        <v>9.4282010850682774E-2</v>
+      </c>
+      <c r="K29" s="31">
+        <f>+K6/J6-1</f>
+        <v>3.3020106362842805E-2</v>
+      </c>
+      <c r="L29" s="31">
         <f>+L6/K6-1</f>
         <v>7.918457091856923E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="40" t="s">
+      <c r="M29" s="31">
+        <f>+M6/L6-1</f>
+        <v>6.5637733864960968E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="AD31" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE31" s="61">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="2:98" x14ac:dyDescent="0.2">
+      <c r="AD32" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE32" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B33" s="32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="41" t="s">
+      <c r="AD33" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE33" s="63">
+        <f>+NPV(AE32,T19:CT19)</f>
+        <v>5011.780157702924</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="33">
         <v>438.61599999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="41" t="s">
+      <c r="AD34" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE34" s="59">
+        <f>+Main!C11</f>
+        <v>1083.104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="33">
         <v>644.48800000000006</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE35" s="59">
+        <f>+AE33-AE34</f>
+        <v>3928.6761577029238</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="L36" s="3">
         <v>165.001</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE36" s="60">
+        <f>+AE35/Main!C7</f>
+        <v>24.603895098874126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="L37" s="3">
         <v>33.841000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD37" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE37" s="60">
+        <f>+Main!C6</f>
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L38" s="3">
         <v>32.409999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE38" s="64">
+        <f>+AE36/AE37-1</f>
+        <v>-0.60939998255478445</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>66</v>
       </c>
@@ -2242,7 +4080,7 @@
         <v>1314.356</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>67</v>
       </c>
@@ -2250,7 +4088,7 @@
         <v>2.899</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>68</v>
       </c>
@@ -2258,7 +4096,7 @@
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>69</v>
       </c>
@@ -2267,7 +4105,7 @@
         <v>37.884</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
@@ -2275,7 +4113,7 @@
         <v>15.753</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
@@ -2283,7 +4121,7 @@
         <v>4.8879999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>71</v>
       </c>
@@ -2292,7 +4130,7 @@
         <v>1376.2619999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>72</v>
       </c>
@@ -2300,7 +4138,7 @@
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>73</v>
       </c>
@@ -2420,42 +4258,42 @@
         <v>1083.104</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B74" s="40" t="s">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B74" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>85</v>
       </c>
@@ -2466,6 +4304,14 @@
         <f>16.148-G75</f>
         <v>27.109000000000002</v>
       </c>
+      <c r="I75" s="3">
+        <f>10.187-SUM(G75:H75)</f>
+        <v>-5.9610000000000039</v>
+      </c>
+      <c r="J75" s="3">
+        <f>24.853-SUM(G75:I75)</f>
+        <v>14.666000000000002</v>
+      </c>
       <c r="K75" s="3">
         <v>38.137999999999998</v>
       </c>
@@ -2473,8 +4319,12 @@
         <f>49.835-K75</f>
         <v>11.697000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <f>+SUM(G75:J75)</f>
+        <v>24.853000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>86</v>
       </c>
@@ -2485,6 +4335,14 @@
         <f>0.533-G76</f>
         <v>0.27700000000000002</v>
       </c>
+      <c r="I76" s="3">
+        <f>1.269-SUM(G76:H76)</f>
+        <v>0.73599999999999988</v>
+      </c>
+      <c r="J76" s="3">
+        <f>0.329-SUM(G76:I76)</f>
+        <v>-0.94</v>
+      </c>
       <c r="K76" s="3">
         <v>0.7</v>
       </c>
@@ -2492,8 +4350,12 @@
         <f>1.551-K76</f>
         <v>0.85099999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <f>+SUM(G76:J76)</f>
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>87</v>
       </c>
@@ -2505,23 +4367,55 @@
         <f>+H75-H76</f>
         <v>26.832000000000001</v>
       </c>
+      <c r="I77" s="3">
+        <f>+I75-I76</f>
+        <v>-6.6970000000000036</v>
+      </c>
+      <c r="J77" s="3">
+        <f>+J75-J76</f>
+        <v>15.606000000000002</v>
+      </c>
       <c r="K77" s="3">
         <f>+K75-K76</f>
         <v>37.437999999999995</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="52">
         <f>+L75-L76</f>
         <v>10.846000000000004</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <f>+S75-S76</f>
+        <v>24.524000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J78" s="3">
+        <f>+SUM(G75:J75)</f>
+        <v>24.853000000000002</v>
+      </c>
+      <c r="K78" s="3">
+        <f>+SUM(H75:K75)</f>
+        <v>73.951999999999998</v>
+      </c>
+      <c r="L78" s="3">
+        <f>+SUM(I75:L75)</f>
+        <v>58.54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="K80" s="1">
+        <f>+K78/K21</f>
+        <v>0.46758600631018543</v>
+      </c>
+      <c r="L80" s="1">
+        <f>+L78/L21</f>
+        <v>0.36661510424168792</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
@@ -2533,8 +4427,17 @@
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" xr:uid="{FD0B42B7-A17C-4F4B-93C3-09E21958016D}"/>
     <hyperlink ref="K1" r:id="rId2" xr:uid="{99905A11-BF73-45DC-89C0-2928ADC66ACF}"/>
+    <hyperlink ref="I1" r:id="rId3" xr:uid="{66E50FE4-9C30-47F5-AA1C-BA1CC1967928}"/>
+    <hyperlink ref="S1" r:id="rId4" xr:uid="{FC940ED8-661F-41D5-A05C-BC26F10BC7F8}"/>
+    <hyperlink ref="J1" r:id="rId5" xr:uid="{4D54D595-E29E-4A94-A618-82F2F2484DE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <ignoredErrors>
+    <ignoredError sqref="S4:S5 S18:S21" formulaRange="1"/>
+    <ignoredError sqref="S6:S17 T18 T15:T16 T11:T13" formula="1" formulaRange="1"/>
+    <ignoredError sqref="T20:T21 T10 T14 T17 T19" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/$GTLB.xlsx
+++ b/$GTLB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0848CC21-8F32-43C9-8940-C8D04E3CD630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24544E9F-1699-481C-A785-92D0A005B818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F69BF4D-74DA-4B99-851A-86D37B91804A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F69BF4D-74DA-4B99-851A-86D37B91804A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
   <si>
     <t>$GTLB</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>DevOps Git Repositories, License/Subscription model</t>
+  </si>
+  <si>
+    <t>AWS and GitLab Announce Integrated AI Offering to Accelerate Software Innovation and Developer Productivity</t>
   </si>
 </sst>
 </file>
@@ -404,8 +407,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0\x"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -598,7 +601,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -671,10 +674,28 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,6 +705,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,36 +731,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1217,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C351D5-6D1F-45E0-98C8-B94DC16F2D33}">
   <dimension ref="A2:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,29 +1246,29 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="G5" s="40" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="G5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>62.99</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="D6" s="19"/>
       <c r="G6" s="17"/>
@@ -1287,8 +1293,12 @@
         <f>+C30</f>
         <v>Q225</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="65">
+        <v>45630</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -1303,7 +1313,7 @@
       </c>
       <c r="C8" s="5">
         <f>C6*C7</f>
-        <v>10058.05423</v>
+        <v>10682.391300000001</v>
       </c>
       <c r="D8" s="19"/>
       <c r="G8" s="17"/>
@@ -1388,7 +1398,7 @@
       </c>
       <c r="C12" s="6">
         <f>C8-C11</f>
-        <v>8974.9502300000004</v>
+        <v>9599.2873000000018</v>
       </c>
       <c r="D12" s="20"/>
       <c r="G12" s="17"/>
@@ -1424,11 +1434,11 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
       <c r="G15" s="17"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1446,10 +1456,10 @@
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="58"/>
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1464,10 +1474,10 @@
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="58"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1482,10 +1492,10 @@
       <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="58"/>
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1500,11 +1510,11 @@
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="49" t="str">
+      <c r="C19" s="52" t="str">
         <f>+C16</f>
         <v>Sytse Sijbrandij</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="53"/>
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -1538,11 +1548,11 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1557,10 +1567,10 @@
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="57">
         <v>2011</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="58"/>
       <c r="G23" s="17"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1575,10 +1585,10 @@
       <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="58"/>
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -1593,10 +1603,10 @@
       <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="57">
         <v>2021</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="58"/>
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -1609,8 +1619,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -1623,8 +1633,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -1639,10 +1649,10 @@
       <c r="B28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="61">
         <v>2130</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="62"/>
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -1655,8 +1665,8 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -1691,10 +1701,10 @@
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="64"/>
       <c r="G31" s="18"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -1706,63 +1716,75 @@
       <c r="O31" s="16"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="59">
         <f>+C6/'Financial Model'!L60</f>
-        <v>14.619179873954225</v>
-      </c>
-      <c r="D35" s="48"/>
+        <v>15.526641269527508</v>
+      </c>
+      <c r="D35" s="60"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="59">
         <f>+C8/SUM('Financial Model'!I6:L6)</f>
-        <v>15.11993696803153</v>
-      </c>
-      <c r="D36" s="48"/>
+        <v>16.05848203145435</v>
+      </c>
+      <c r="D36" s="60"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="59">
         <f>+C6/SUM('Financial Model'!I20:L20)</f>
-        <v>-26.754735051777317</v>
-      </c>
-      <c r="D37" s="48"/>
+        <v>-28.415490950371531</v>
+      </c>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="59">
         <f>+C6/'Financial Model'!L80</f>
-        <v>171.81507055005125</v>
-      </c>
-      <c r="D38" s="48"/>
+        <v>182.48020669627607</v>
+      </c>
+      <c r="D38" s="60"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="52">
         <v>41</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -1772,25 +1794,14 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{3CFDFC33-4502-4D5A-AAC4-1C9E296A7A2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1798,11 +1809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479A7C19-8595-4298-8C6A-8F2F334D2581}">
   <dimension ref="A1:CT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1931,7 +1942,7 @@
       <c r="I3" s="25">
         <v>38322</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="38">
         <v>45355</v>
       </c>
       <c r="K3" s="25">
@@ -1940,7 +1951,7 @@
       <c r="L3" s="25">
         <v>45536</v>
       </c>
-      <c r="S3" s="51">
+      <c r="S3" s="38">
         <v>45355</v>
       </c>
     </row>
@@ -2021,35 +2032,35 @@
         <v>10</v>
       </c>
       <c r="E6" s="33">
-        <f>+E4+E5</f>
+        <f t="shared" ref="E6:L6" si="0">+E4+E5</f>
         <v>112.98099999999999</v>
       </c>
       <c r="F6" s="33">
-        <f>+F4+F5</f>
+        <f t="shared" si="0"/>
         <v>122.90700000000001</v>
       </c>
       <c r="G6" s="33">
-        <f>+G4+G5</f>
+        <f t="shared" si="0"/>
         <v>126.878</v>
       </c>
       <c r="H6" s="33">
-        <f>+H4+H5</f>
+        <f t="shared" si="0"/>
         <v>139.58100000000002</v>
       </c>
       <c r="I6" s="33">
-        <f>+I4+I5</f>
+        <f t="shared" si="0"/>
         <v>149.66800000000001</v>
       </c>
       <c r="J6" s="33">
-        <f>+J4+J5</f>
+        <f t="shared" si="0"/>
         <v>163.779</v>
       </c>
       <c r="K6" s="33">
-        <f>+K4+K5</f>
+        <f t="shared" si="0"/>
         <v>169.18700000000001</v>
       </c>
       <c r="L6" s="33">
-        <f>+L4+L5</f>
+        <f t="shared" si="0"/>
         <v>182.584</v>
       </c>
       <c r="M6" s="33">
@@ -2057,7 +2068,7 @@
         <v>194.56840000000003</v>
       </c>
       <c r="N6" s="33">
-        <f t="shared" ref="N6" si="0">+J6*(1+N28)</f>
+        <f t="shared" ref="N6" si="1">+J6*(1+N28)</f>
         <v>209.63712000000001</v>
       </c>
       <c r="R6" s="33">
@@ -2077,102 +2088,102 @@
         <v>982.76947600000005</v>
       </c>
       <c r="V6" s="33">
-        <f t="shared" ref="V6:AB6" si="1">+U6*(1+V28)</f>
+        <f t="shared" ref="V6:AB6" si="2">+U6*(1+V28)</f>
         <v>1228.461845</v>
       </c>
       <c r="W6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1498.7234509</v>
       </c>
       <c r="X6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1798.4681410799999</v>
       </c>
       <c r="Y6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2068.2383622419998</v>
       </c>
       <c r="Z6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2275.0621984661998</v>
       </c>
       <c r="AA6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2388.8153083895099</v>
       </c>
       <c r="AB6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2508.2560738089855</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="54" t="s">
+    <row r="7" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="40">
         <v>11.113</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="40">
         <v>11.124000000000001</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="40">
         <v>10.891</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="40">
         <v>10.871</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="40">
         <v>11.558999999999999</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="40">
         <v>12.164999999999999</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="40">
         <v>13.839</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="40">
         <v>16.63</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="40">
         <v>40.841000000000001</v>
       </c>
-      <c r="S7" s="53">
+      <c r="S7" s="40">
         <f>+SUM(G7:J7)</f>
         <v>45.485999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="54" t="s">
+    <row r="8" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="40">
         <v>3.4510000000000001</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="40">
         <v>3.1139999999999999</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="40">
         <v>3.048</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="40">
         <v>3.8250000000000002</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="40">
         <v>3.5249999999999999</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="40">
         <v>3.8239999999999998</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="40">
         <v>4.9370000000000003</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="40">
         <v>4.74</v>
       </c>
-      <c r="R8" s="53">
+      <c r="R8" s="40">
         <v>10.839</v>
       </c>
-      <c r="S8" s="53">
+      <c r="S8" s="40">
         <f>+SUM(G8:J8)</f>
         <v>14.222</v>
       </c>
@@ -2182,35 +2193,35 @@
         <v>43</v>
       </c>
       <c r="E9" s="3">
-        <f>+E7+E8</f>
+        <f t="shared" ref="E9:L9" si="3">+E7+E8</f>
         <v>14.564</v>
       </c>
       <c r="F9" s="3">
-        <f>+F7+F8</f>
+        <f t="shared" si="3"/>
         <v>14.238</v>
       </c>
       <c r="G9" s="3">
-        <f>+G7+G8</f>
+        <f t="shared" si="3"/>
         <v>13.939</v>
       </c>
       <c r="H9" s="3">
-        <f>+H7+H8</f>
+        <f t="shared" si="3"/>
         <v>14.696000000000002</v>
       </c>
       <c r="I9" s="3">
-        <f>+I7+I8</f>
+        <f t="shared" si="3"/>
         <v>15.084</v>
       </c>
       <c r="J9" s="3">
-        <f>+J7+J8</f>
+        <f t="shared" si="3"/>
         <v>15.988999999999999</v>
       </c>
       <c r="K9" s="3">
-        <f>+K7+K8</f>
+        <f t="shared" si="3"/>
         <v>18.776</v>
       </c>
       <c r="L9" s="3">
-        <f>+L7+L8</f>
+        <f t="shared" si="3"/>
         <v>21.369999999999997</v>
       </c>
       <c r="M9" s="3">
@@ -2218,7 +2229,7 @@
         <v>21.402524</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9" si="2">+N6*(1-N23)</f>
+        <f t="shared" ref="N9" si="4">+N6*(1-N23)</f>
         <v>23.060083199999998</v>
       </c>
       <c r="R9" s="3">
@@ -2238,31 +2249,31 @@
         <v>108.10464236</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" ref="V9:AB9" si="3">+V6*(1-V23)</f>
+        <f t="shared" ref="V9:AB9" si="5">+V6*(1-V23)</f>
         <v>135.13080294999997</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>164.85957959899997</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>197.83149551879995</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>227.50621984661996</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>250.25684183128195</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>262.76968392284607</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>275.90816811898839</v>
       </c>
     </row>
@@ -2271,43 +2282,43 @@
         <v>44</v>
       </c>
       <c r="E10" s="33">
-        <f>+E6-E9</f>
+        <f t="shared" ref="E10:M10" si="6">+E6-E9</f>
         <v>98.417000000000002</v>
       </c>
       <c r="F10" s="33">
-        <f>+F6-F9</f>
+        <f t="shared" si="6"/>
         <v>108.66900000000001</v>
       </c>
       <c r="G10" s="33">
-        <f>+G6-G9</f>
+        <f t="shared" si="6"/>
         <v>112.93899999999999</v>
       </c>
       <c r="H10" s="33">
-        <f>+H6-H9</f>
+        <f t="shared" si="6"/>
         <v>124.88500000000002</v>
       </c>
       <c r="I10" s="33">
-        <f>+I6-I9</f>
+        <f t="shared" si="6"/>
         <v>134.584</v>
       </c>
       <c r="J10" s="33">
-        <f>+J6-J9</f>
+        <f t="shared" si="6"/>
         <v>147.79</v>
       </c>
       <c r="K10" s="33">
-        <f>+K6-K9</f>
+        <f t="shared" si="6"/>
         <v>150.411</v>
       </c>
       <c r="L10" s="33">
-        <f>+L6-L9</f>
+        <f t="shared" si="6"/>
         <v>161.214</v>
       </c>
       <c r="M10" s="33">
-        <f>+M6-M9</f>
+        <f t="shared" si="6"/>
         <v>173.16587600000003</v>
       </c>
       <c r="N10" s="33">
-        <f t="shared" ref="N10" si="4">+N6-N9</f>
+        <f t="shared" ref="N10" si="7">+N6-N9</f>
         <v>186.5770368</v>
       </c>
       <c r="R10" s="33">
@@ -2323,35 +2334,35 @@
         <v>671.36791280000011</v>
       </c>
       <c r="U10" s="33">
-        <f t="shared" ref="U10:AB10" si="5">+U6-U9</f>
+        <f t="shared" ref="U10:AB10" si="8">+U6-U9</f>
         <v>874.6648336400001</v>
       </c>
       <c r="V10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1093.3310420500002</v>
       </c>
       <c r="W10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1333.863871301</v>
       </c>
       <c r="X10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1600.6366455611999</v>
       </c>
       <c r="Y10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1840.7321423953799</v>
       </c>
       <c r="Z10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2024.8053566349179</v>
       </c>
       <c r="AA10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2126.0456244666639</v>
       </c>
       <c r="AB10" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2232.3479056899973</v>
       </c>
     </row>
@@ -2397,7 +2408,7 @@
         <v>356.39300000000003</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" ref="T11:T13" si="6">+SUM(K11:N11)</f>
+        <f t="shared" ref="T11:T13" si="9">+SUM(K11:N11)</f>
         <v>394.202</v>
       </c>
       <c r="U11" s="3">
@@ -2405,31 +2416,31 @@
         <v>419.202</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" ref="V11:AB11" si="7">+U11+25</f>
+        <f t="shared" ref="V11:AB11" si="10">+U11+25</f>
         <v>444.202</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>469.202</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>494.202</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>519.202</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>544.202</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>569.202</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>594.202</v>
       </c>
     </row>
@@ -2475,7 +2486,7 @@
         <v>200.84</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>255.41300000000001</v>
       </c>
       <c r="U12" s="3">
@@ -2483,31 +2494,31 @@
         <v>324.31392708000004</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" ref="V12:AB12" si="8">+V6*0.33</f>
+        <f t="shared" ref="V12:AB12" si="11">+V6*0.33</f>
         <v>405.39240885000004</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>494.57873879700003</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>593.49448655640003</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>682.51865953985998</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750.77052549384598</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>788.30905176853832</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>827.72450435696533</v>
       </c>
     </row>
@@ -2553,7 +2564,7 @@
         <v>150.405</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>192.655</v>
       </c>
       <c r="U13" s="3">
@@ -2561,31 +2572,31 @@
         <v>227.655</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" ref="V13:AB13" si="9">+U13+35</f>
+        <f t="shared" ref="V13:AB13" si="12">+U13+35</f>
         <v>262.65499999999997</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>297.65499999999997</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>332.65499999999997</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>367.65499999999997</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>402.65499999999997</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>437.65499999999997</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>472.65499999999997</v>
       </c>
     </row>
@@ -2594,43 +2605,43 @@
         <v>48</v>
       </c>
       <c r="E14" s="33">
-        <f>+E10-SUM(E11:E13)</f>
+        <f t="shared" ref="E14:M14" si="13">+E10-SUM(E11:E13)</f>
         <v>-56.961999999999989</v>
       </c>
       <c r="F14" s="33">
-        <f>+F10-SUM(F11:F13)</f>
+        <f t="shared" si="13"/>
         <v>-46.274000000000001</v>
       </c>
       <c r="G14" s="33">
-        <f>+G10-SUM(G11:G13)</f>
+        <f t="shared" si="13"/>
         <v>-58.233000000000004</v>
       </c>
       <c r="H14" s="33">
-        <f>+H10-SUM(H11:H13)</f>
+        <f t="shared" si="13"/>
         <v>-54.056999999999988</v>
       </c>
       <c r="I14" s="33">
-        <f>+I10-SUM(I11:I13)</f>
+        <f t="shared" si="13"/>
         <v>-40.266999999999996</v>
       </c>
       <c r="J14" s="33">
-        <f>+J10-SUM(J11:J13)</f>
+        <f t="shared" si="13"/>
         <v>-34.88300000000001</v>
       </c>
       <c r="K14" s="33">
-        <f>+K10-SUM(K11:K13)</f>
+        <f t="shared" si="13"/>
         <v>-53.640000000000015</v>
       </c>
       <c r="L14" s="33">
-        <f>+L10-SUM(L11:L13)</f>
+        <f t="shared" si="13"/>
         <v>-41.005000000000024</v>
       </c>
       <c r="M14" s="33">
-        <f>+M10-SUM(M11:M13)</f>
+        <f t="shared" si="13"/>
         <v>-44.834123999999974</v>
       </c>
       <c r="N14" s="33">
-        <f t="shared" ref="N14" si="10">+N10-SUM(N11:N13)</f>
+        <f t="shared" ref="N14" si="14">+N10-SUM(N11:N13)</f>
         <v>-31.422963199999998</v>
       </c>
       <c r="R14" s="33">
@@ -2646,35 +2657,35 @@
         <v>-170.90208719999987</v>
       </c>
       <c r="U14" s="33">
-        <f t="shared" ref="U14:AB14" si="11">+U10-SUM(U11:U13)</f>
+        <f t="shared" ref="U14:AB14" si="15">+U10-SUM(U11:U13)</f>
         <v>-96.506093439999859</v>
       </c>
       <c r="V14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-18.918366799999831</v>
       </c>
       <c r="W14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>72.428132504000132</v>
       </c>
       <c r="X14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>180.28515900479988</v>
       </c>
       <c r="Y14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>271.35648285551997</v>
       </c>
       <c r="Z14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>327.17783114107192</v>
       </c>
       <c r="AA14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>330.87957269812546</v>
       </c>
       <c r="AB14" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>337.76640133303204</v>
       </c>
     </row>
@@ -2711,7 +2722,7 @@
         <v>10.707333333333333</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" ref="N15:N16" si="12">+AVERAGE(H15:M15)</f>
+        <f t="shared" ref="N15:N16" si="16">+AVERAGE(H15:M15)</f>
         <v>11.272722222222223</v>
       </c>
       <c r="R15" s="3">
@@ -2789,7 +2800,7 @@
         <v>-2.8206666666666664</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-2.9184444444444444</v>
       </c>
       <c r="R16" s="3">
@@ -2834,43 +2845,43 @@
         <v>51</v>
       </c>
       <c r="E17" s="3">
-        <f>+E14+E15+E16</f>
+        <f t="shared" ref="E17:M17" si="17">+E14+E15+E16</f>
         <v>-50.399999999999991</v>
       </c>
       <c r="F17" s="3">
-        <f>+F14+F15+F16</f>
+        <f t="shared" si="17"/>
         <v>-41.741999999999997</v>
       </c>
       <c r="G17" s="3">
-        <f>+G14+G15+G16</f>
+        <f t="shared" si="17"/>
         <v>-53.152000000000008</v>
       </c>
       <c r="H17" s="3">
-        <f>+H14+H15+H16</f>
+        <f t="shared" si="17"/>
         <v>-47.191999999999986</v>
       </c>
       <c r="I17" s="3">
-        <f>+I14+I15+I16</f>
+        <f t="shared" si="17"/>
         <v>-29.566999999999993</v>
       </c>
       <c r="J17" s="3">
-        <f>+J14+J15+J16</f>
+        <f t="shared" si="17"/>
         <v>-35.804000000000009</v>
       </c>
       <c r="K17" s="3">
-        <f>+K14+K15+K16</f>
+        <f t="shared" si="17"/>
         <v>-41.904000000000018</v>
       </c>
       <c r="L17" s="3">
-        <f>+L14+L15+L16</f>
+        <f t="shared" si="17"/>
         <v>-27.146000000000026</v>
       </c>
       <c r="M17" s="3">
-        <f>+M14+M15+M16</f>
+        <f t="shared" si="17"/>
         <v>-36.947457333333311</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" ref="N17" si="13">+N14+N15+N16</f>
+        <f t="shared" ref="N17" si="18">+N14+N15+N16</f>
         <v>-23.06868542222222</v>
       </c>
       <c r="R17" s="3">
@@ -2886,35 +2897,35 @@
         <v>-129.0661427555554</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" ref="U17:AB17" si="14">+U14+U15+U16</f>
+        <f t="shared" ref="U17:AB17" si="19">+U14+U15+U16</f>
         <v>-86.506093439999859</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-28.918366799999831</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>77.428132504000132</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>175.28515900479988</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>272.35648285551997</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>329.17783114107192</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>331.87957269812546</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>339.76640133303204</v>
       </c>
     </row>
@@ -2976,23 +2987,23 @@
         <v>-15.485626500800027</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" ref="X18:AB18" si="15">-(+X17*X26)</f>
+        <f t="shared" ref="X18:AB18" si="20">-(+X17*X26)</f>
         <v>-35.057031800959976</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-54.471296571103998</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-65.83556622821439</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-66.3759145396251</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-67.953280266606413</v>
       </c>
     </row>
@@ -3001,43 +3012,43 @@
         <v>53</v>
       </c>
       <c r="E19" s="33">
-        <f>+E17+E18</f>
+        <f t="shared" ref="E19:M19" si="21">+E17+E18</f>
         <v>-50.464999999999989</v>
       </c>
       <c r="F19" s="33">
-        <f>+F17+F18</f>
+        <f t="shared" si="21"/>
         <v>-42.120999999999995</v>
       </c>
       <c r="G19" s="33">
-        <f>+G17+G18</f>
+        <f t="shared" si="21"/>
         <v>-54.638000000000005</v>
       </c>
       <c r="H19" s="33">
-        <f>+H17+H18</f>
+        <f t="shared" si="21"/>
         <v>-51.207999999999984</v>
       </c>
       <c r="I19" s="33">
-        <f>+I17+I18</f>
+        <f t="shared" si="21"/>
         <v>-286.35500000000002</v>
       </c>
       <c r="J19" s="33">
-        <f>+J17+J18</f>
+        <f t="shared" si="21"/>
         <v>-37.571000000000012</v>
       </c>
       <c r="K19" s="33">
-        <f>+K17+K18</f>
+        <f t="shared" si="21"/>
         <v>-54.614000000000019</v>
       </c>
       <c r="L19" s="33">
-        <f>+L17+L18</f>
+        <f t="shared" si="21"/>
         <v>12.273999999999976</v>
       </c>
       <c r="M19" s="33">
-        <f>+M17+M18</f>
+        <f t="shared" si="21"/>
         <v>-26.947457333333311</v>
       </c>
       <c r="N19" s="33">
-        <f t="shared" ref="N19" si="16">+N17+N18</f>
+        <f t="shared" ref="N19" si="22">+N17+N18</f>
         <v>-13.06868542222222</v>
       </c>
       <c r="R19" s="33">
@@ -3053,35 +3064,35 @@
         <v>-82.356142755555396</v>
       </c>
       <c r="U19" s="33">
-        <f t="shared" ref="U19:AB19" si="17">+U17+U18</f>
+        <f t="shared" ref="U19:AB19" si="23">+U17+U18</f>
         <v>-84.775971571199861</v>
       </c>
       <c r="V19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-26.026530119999848</v>
       </c>
       <c r="W19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>61.942506003200108</v>
       </c>
       <c r="X19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>140.2281272038399</v>
       </c>
       <c r="Y19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>217.88518628441597</v>
       </c>
       <c r="Z19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>263.34226491285756</v>
       </c>
       <c r="AA19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>265.50365815850034</v>
       </c>
       <c r="AB19" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>271.81312106642565</v>
       </c>
       <c r="AC19" s="33">
@@ -3089,279 +3100,279 @@
         <v>282.68564590908267</v>
       </c>
       <c r="AD19" s="33">
-        <f t="shared" ref="AD19:CO19" si="18">+AC19*(1+$AE$31)</f>
+        <f t="shared" ref="AD19:CO19" si="24">+AC19*(1+$AE$31)</f>
         <v>293.993071745446</v>
       </c>
       <c r="AE19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>305.75279461526384</v>
       </c>
       <c r="AF19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>317.98290639987442</v>
       </c>
       <c r="AG19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>330.70222265586943</v>
       </c>
       <c r="AH19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>343.93031156210424</v>
       </c>
       <c r="AI19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>357.68752402458841</v>
       </c>
       <c r="AJ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>371.99502498557194</v>
       </c>
       <c r="AK19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>386.87482598499486</v>
       </c>
       <c r="AL19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>402.34981902439466</v>
       </c>
       <c r="AM19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>418.44381178537049</v>
       </c>
       <c r="AN19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>435.18156425678529</v>
       </c>
       <c r="AO19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>452.58882682705672</v>
       </c>
       <c r="AP19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>470.69237990013903</v>
       </c>
       <c r="AQ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>489.52007509614458</v>
       </c>
       <c r="AR19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>509.10087809999038</v>
       </c>
       <c r="AS19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>529.46491322399004</v>
       </c>
       <c r="AT19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>550.64350975294963</v>
       </c>
       <c r="AU19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>572.66925014306764</v>
       </c>
       <c r="AV19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>595.57602014879035</v>
       </c>
       <c r="AW19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>619.39906095474203</v>
       </c>
       <c r="AX19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>644.17502339293173</v>
       </c>
       <c r="AY19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>669.94202432864904</v>
       </c>
       <c r="AZ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>696.73970530179497</v>
       </c>
       <c r="BA19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>724.60929351386676</v>
       </c>
       <c r="BB19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>753.59366525442147</v>
       </c>
       <c r="BC19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>783.73741186459836</v>
       </c>
       <c r="BD19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>815.08690833918229</v>
       </c>
       <c r="BE19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>847.69038467274959</v>
       </c>
       <c r="BF19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>881.59800005965963</v>
       </c>
       <c r="BG19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>916.86192006204601</v>
       </c>
       <c r="BH19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>953.53639686452789</v>
       </c>
       <c r="BI19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>991.67785273910908</v>
       </c>
       <c r="BJ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1031.3449668486735</v>
       </c>
       <c r="BK19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1072.5987655226204</v>
       </c>
       <c r="BL19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1115.5027161435253</v>
       </c>
       <c r="BM19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1160.1228247892664</v>
       </c>
       <c r="BN19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1206.527737780837</v>
       </c>
       <c r="BO19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1254.7888472920706</v>
       </c>
       <c r="BP19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1304.9804011837534</v>
       </c>
       <c r="BQ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1357.1796172311035</v>
       </c>
       <c r="BR19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1411.4668019203477</v>
       </c>
       <c r="BS19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1467.9254739971616</v>
       </c>
       <c r="BT19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1526.642492957048</v>
       </c>
       <c r="BU19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1587.7081926753301</v>
       </c>
       <c r="BV19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1651.2165203823433</v>
       </c>
       <c r="BW19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1717.265181197637</v>
       </c>
       <c r="BX19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1785.9557884455426</v>
       </c>
       <c r="BY19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1857.3940199833644</v>
       </c>
       <c r="BZ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1931.689780782699</v>
       </c>
       <c r="CA19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2008.957372014007</v>
       </c>
       <c r="CB19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2089.3156668945671</v>
       </c>
       <c r="CC19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2172.88829357035</v>
       </c>
       <c r="CD19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2259.803825313164</v>
       </c>
       <c r="CE19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2350.1959783256907</v>
       </c>
       <c r="CF19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2444.2038174587183</v>
       </c>
       <c r="CG19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2541.9719701570671</v>
       </c>
       <c r="CH19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2643.6508489633497</v>
       </c>
       <c r="CI19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2749.3968829218838</v>
       </c>
       <c r="CJ19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2859.3727582387592</v>
       </c>
       <c r="CK19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2973.7476685683096</v>
       </c>
       <c r="CL19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3092.6975753110419</v>
       </c>
       <c r="CM19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3216.4054783234837</v>
       </c>
       <c r="CN19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3345.0616974564232</v>
       </c>
       <c r="CO19" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3478.8641653546802</v>
       </c>
       <c r="CP19" s="33">
-        <f t="shared" ref="CP19:CT19" si="19">+CO19*(1+$AE$31)</f>
+        <f t="shared" ref="CP19:CT19" si="25">+CO19*(1+$AE$31)</f>
         <v>3618.0187319688675</v>
       </c>
       <c r="CQ19" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3762.7394812476223</v>
       </c>
       <c r="CR19" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3913.2490604975274</v>
       </c>
       <c r="CS19" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4069.7790229174284</v>
       </c>
       <c r="CT19" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4232.5701838341256</v>
       </c>
     </row>
@@ -3370,43 +3381,43 @@
         <v>54</v>
       </c>
       <c r="E20" s="27">
-        <f>+E19/E21</f>
+        <f t="shared" ref="E20:M20" si="26">+E19/E21</f>
         <v>-0.33895743637621478</v>
       </c>
       <c r="F20" s="27">
-        <f>+F19/F21</f>
+        <f t="shared" si="26"/>
         <v>-0.28055790532394603</v>
       </c>
       <c r="G20" s="27">
-        <f>+G19/G21</f>
+        <f t="shared" si="26"/>
         <v>-0.36019038578171558</v>
       </c>
       <c r="H20" s="27">
-        <f>+H19/H21</f>
+        <f t="shared" si="26"/>
         <v>-0.3332899429850823</v>
       </c>
       <c r="I20" s="27">
-        <f>+I19/I21</f>
+        <f t="shared" si="26"/>
         <v>-1.8459867331085658</v>
       </c>
       <c r="J20" s="27">
-        <f>+J19/J21</f>
+        <f t="shared" si="26"/>
         <v>-0.23991545392430452</v>
       </c>
       <c r="K20" s="27">
-        <f>+K19/K21</f>
+        <f t="shared" si="26"/>
         <v>-0.34531509828840973</v>
       </c>
       <c r="L20" s="27">
-        <f>+L19/L21</f>
+        <f t="shared" si="26"/>
         <v>7.6867676622180886E-2</v>
       </c>
       <c r="M20" s="27">
-        <f>+M19/M21</f>
+        <f t="shared" si="26"/>
         <v>-0.16876229722084779</v>
       </c>
       <c r="N20" s="27">
-        <f t="shared" ref="N20" si="20">+N19/N21</f>
+        <f t="shared" ref="N20" si="27">+N19/N21</f>
         <v>-8.1844507488381055E-2</v>
       </c>
       <c r="R20" s="27">
@@ -3422,35 +3433,35 @@
         <v>-0.51905422637545762</v>
       </c>
       <c r="U20" s="27">
-        <f>+U19/U21</f>
+        <f t="shared" ref="U20:AB20" si="28">+U19/U21</f>
         <v>-0.53092162034106272</v>
       </c>
       <c r="V20" s="27">
-        <f>+V19/V21</f>
+        <f t="shared" si="28"/>
         <v>-0.1629948591218513</v>
       </c>
       <c r="W20" s="27">
-        <f>+W19/W21</f>
+        <f t="shared" si="28"/>
         <v>0.3879237836582608</v>
       </c>
       <c r="X20" s="27">
-        <f>+X19/X21</f>
+        <f t="shared" si="28"/>
         <v>0.87819865856597956</v>
       </c>
       <c r="Y20" s="27">
-        <f>+Y19/Y21</f>
+        <f t="shared" si="28"/>
         <v>1.3645370734947173</v>
       </c>
       <c r="Z20" s="27">
-        <f>+Z19/Z21</f>
+        <f t="shared" si="28"/>
         <v>1.6492185155836945</v>
       </c>
       <c r="AA20" s="27">
-        <f>+AA19/AA21</f>
+        <f t="shared" si="28"/>
         <v>1.6627545492368991</v>
       </c>
       <c r="AB20" s="27">
-        <f>+AB19/AB21</f>
+        <f t="shared" si="28"/>
         <v>1.7022684611210486</v>
       </c>
     </row>
@@ -3487,7 +3498,7 @@
         <v>159.67699999999999</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" ref="N21" si="21">+M21</f>
+        <f t="shared" ref="N21" si="29">+M21</f>
         <v>159.67699999999999</v>
       </c>
       <c r="R21" s="28">
@@ -3506,31 +3517,31 @@
         <v>159.67699999999999</v>
       </c>
       <c r="V21" s="28">
-        <f t="shared" ref="V21:AB21" si="22">+U21</f>
+        <f t="shared" ref="V21:AB21" si="30">+U21</f>
         <v>159.67699999999999</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>159.67699999999999</v>
       </c>
       <c r="X21" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>159.67699999999999</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>159.67699999999999</v>
       </c>
       <c r="Z21" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>159.67699999999999</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>159.67699999999999</v>
       </c>
       <c r="AB21" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>159.67699999999999</v>
       </c>
     </row>
@@ -3539,35 +3550,35 @@
         <v>55</v>
       </c>
       <c r="E23" s="31">
-        <f>E10/E6</f>
+        <f t="shared" ref="E23:L23" si="31">E10/E6</f>
         <v>0.87109336968162798</v>
       </c>
       <c r="F23" s="31">
-        <f>F10/F6</f>
+        <f t="shared" si="31"/>
         <v>0.88415631331006372</v>
       </c>
       <c r="G23" s="31">
-        <f>G10/G6</f>
+        <f t="shared" si="31"/>
         <v>0.89013855830009925</v>
       </c>
       <c r="H23" s="31">
-        <f>H10/H6</f>
+        <f t="shared" si="31"/>
         <v>0.89471346386685868</v>
       </c>
       <c r="I23" s="31">
-        <f>I10/I6</f>
+        <f t="shared" si="31"/>
         <v>0.89921693347943443</v>
       </c>
       <c r="J23" s="31">
-        <f>J10/J6</f>
+        <f t="shared" si="31"/>
         <v>0.90237454130260897</v>
       </c>
       <c r="K23" s="31">
-        <f>K10/K6</f>
+        <f t="shared" si="31"/>
         <v>0.88902220619787564</v>
       </c>
       <c r="L23" s="31">
-        <f>L10/L6</f>
+        <f t="shared" si="31"/>
         <v>0.88295798098409495</v>
       </c>
       <c r="M23" s="31">
@@ -3618,43 +3629,43 @@
         <v>56</v>
       </c>
       <c r="E24" s="31">
-        <f>E14/E6</f>
+        <f t="shared" ref="E24:M24" si="32">E14/E6</f>
         <v>-0.50417326807162255</v>
       </c>
       <c r="F24" s="31">
-        <f>F14/F6</f>
+        <f t="shared" si="32"/>
         <v>-0.37649604985883633</v>
       </c>
       <c r="G24" s="31">
-        <f>G14/G6</f>
+        <f t="shared" si="32"/>
         <v>-0.45896845788868051</v>
       </c>
       <c r="H24" s="31">
-        <f>H14/H6</f>
+        <f t="shared" si="32"/>
         <v>-0.3872805037934961</v>
       </c>
       <c r="I24" s="31">
-        <f>I14/I6</f>
+        <f t="shared" si="32"/>
         <v>-0.26904214661784748</v>
       </c>
       <c r="J24" s="31">
-        <f>J14/J6</f>
+        <f t="shared" si="32"/>
         <v>-0.21298823414479273</v>
       </c>
       <c r="K24" s="31">
-        <f>K14/K6</f>
+        <f t="shared" si="32"/>
         <v>-0.31704563589401086</v>
       </c>
       <c r="L24" s="31">
-        <f>L14/L6</f>
+        <f t="shared" si="32"/>
         <v>-0.22458156245892313</v>
       </c>
       <c r="M24" s="31">
-        <f>M14/M6</f>
+        <f t="shared" si="32"/>
         <v>-0.23042859991653306</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24" si="23">N14/N6</f>
+        <f t="shared" ref="N24" si="33">N14/N6</f>
         <v>-0.14989217176805328</v>
       </c>
       <c r="R24" s="31">
@@ -3670,35 +3681,35 @@
         <v>-0.22606798316963583</v>
       </c>
       <c r="U24" s="31">
-        <f t="shared" ref="U24:AB24" si="24">U14/U6</f>
+        <f t="shared" ref="U24:AB24" si="34">U14/U6</f>
         <v>-9.8198098126523262E-2</v>
       </c>
       <c r="V24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-1.5400044272437154E-2</v>
       </c>
       <c r="W24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>4.832654914454447E-2</v>
       </c>
       <c r="X24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.10024373236688901</v>
       </c>
       <c r="Y24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.13120174531593431</v>
       </c>
       <c r="Z24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.14381049949388131</v>
       </c>
       <c r="AA24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.13851199443342385</v>
       </c>
       <c r="AB24" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.13466184926649336</v>
       </c>
     </row>
@@ -3707,43 +3718,43 @@
         <v>57</v>
       </c>
       <c r="E25" s="31">
-        <f>E19/E6</f>
+        <f t="shared" ref="E25:M25" si="35">E19/E6</f>
         <v>-0.44666802382701509</v>
       </c>
       <c r="F25" s="31">
-        <f>F19/F6</f>
+        <f t="shared" si="35"/>
         <v>-0.34270627384933317</v>
       </c>
       <c r="G25" s="31">
-        <f>G19/G6</f>
+        <f t="shared" si="35"/>
         <v>-0.43063415249294601</v>
       </c>
       <c r="H25" s="31">
-        <f>H19/H6</f>
+        <f t="shared" si="35"/>
         <v>-0.36686941632457126</v>
       </c>
       <c r="I25" s="31">
-        <f>I19/I6</f>
+        <f t="shared" si="35"/>
         <v>-1.9132680332469199</v>
       </c>
       <c r="J25" s="31">
-        <f>J19/J6</f>
+        <f t="shared" si="35"/>
         <v>-0.22940059470383878</v>
       </c>
       <c r="K25" s="31">
-        <f>K19/K6</f>
+        <f t="shared" si="35"/>
         <v>-0.32280257939439799</v>
       </c>
       <c r="L25" s="31">
-        <f>L19/L6</f>
+        <f t="shared" si="35"/>
         <v>6.7223853130613728E-2</v>
       </c>
       <c r="M25" s="31">
-        <f>M19/M6</f>
+        <f t="shared" si="35"/>
         <v>-0.13849863252888603</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" ref="N25" si="25">N19/N6</f>
+        <f t="shared" ref="N25" si="36">N19/N6</f>
         <v>-6.2339558100312671E-2</v>
       </c>
       <c r="R25" s="31">
@@ -3759,35 +3770,35 @@
         <v>-0.10894008024952334</v>
       </c>
       <c r="U25" s="31">
-        <f t="shared" ref="U25:AB25" si="26">U19/U6</f>
+        <f t="shared" ref="U25:AB25" si="37">U19/U6</f>
         <v>-8.6262316485702345E-2</v>
       </c>
       <c r="V25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-2.1186274710876224E-2</v>
       </c>
       <c r="W25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>4.1330177335920745E-2</v>
       </c>
       <c r="X25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>7.7970870876606896E-2</v>
       </c>
       <c r="Y25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.10534819886438299</v>
       </c>
       <c r="Z25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.11575167707080602</v>
       </c>
       <c r="AA25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.11114448958278714</v>
       </c>
       <c r="AB25" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.10836737281519103</v>
       </c>
     </row>
@@ -3796,43 +3807,43 @@
         <v>58</v>
       </c>
       <c r="E26" s="31">
-        <f>E18/E17</f>
+        <f t="shared" ref="E26:M26" si="38">E18/E17</f>
         <v>1.2896825396825399E-3</v>
       </c>
       <c r="F26" s="31">
-        <f>F18/F17</f>
+        <f t="shared" si="38"/>
         <v>9.0795841119256388E-3</v>
       </c>
       <c r="G26" s="31">
-        <f>G18/G17</f>
+        <f t="shared" si="38"/>
         <v>2.7957555689343765E-2</v>
       </c>
       <c r="H26" s="31">
-        <f>H18/H17</f>
+        <f t="shared" si="38"/>
         <v>8.5099169350737441E-2</v>
       </c>
       <c r="I26" s="31">
-        <f>I18/I17</f>
+        <f t="shared" si="38"/>
         <v>8.6849528190212091</v>
       </c>
       <c r="J26" s="31">
-        <f>J18/J17</f>
+        <f t="shared" si="38"/>
         <v>4.9352027706401506E-2</v>
       </c>
       <c r="K26" s="31">
-        <f>K18/K17</f>
+        <f t="shared" si="38"/>
         <v>0.30331233295150811</v>
       </c>
       <c r="L26" s="31">
-        <f>L18/L17</f>
+        <f t="shared" si="38"/>
         <v>-1.4521476460620335</v>
       </c>
       <c r="M26" s="31">
-        <f>M18/M17</f>
+        <f t="shared" si="38"/>
         <v>-0.27065461933636731</v>
       </c>
       <c r="N26" s="31">
-        <f t="shared" ref="N26" si="27">N18/N17</f>
+        <f t="shared" ref="N26" si="39">N18/N17</f>
         <v>-0.43348807341951667</v>
       </c>
       <c r="R26" s="31">
@@ -3936,51 +3947,51 @@
         <v>60</v>
       </c>
       <c r="F29" s="31">
-        <f>+F6/E6-1</f>
+        <f t="shared" ref="F29:M29" si="40">+F6/E6-1</f>
         <v>8.7855480124976904E-2</v>
       </c>
       <c r="G29" s="31">
-        <f>+G6/F6-1</f>
+        <f t="shared" si="40"/>
         <v>3.2308981587704455E-2</v>
       </c>
       <c r="H29" s="31">
-        <f>+H6/G6-1</f>
+        <f t="shared" si="40"/>
         <v>0.10011980012295285</v>
       </c>
       <c r="I29" s="31">
-        <f>+I6/H6-1</f>
+        <f t="shared" si="40"/>
         <v>7.2266282660247372E-2</v>
       </c>
       <c r="J29" s="31">
-        <f>+J6/I6-1</f>
+        <f t="shared" si="40"/>
         <v>9.4282010850682774E-2</v>
       </c>
       <c r="K29" s="31">
-        <f>+K6/J6-1</f>
+        <f t="shared" si="40"/>
         <v>3.3020106362842805E-2</v>
       </c>
       <c r="L29" s="31">
-        <f>+L6/K6-1</f>
+        <f t="shared" si="40"/>
         <v>7.918457091856923E-2</v>
       </c>
       <c r="M29" s="31">
-        <f>+M6/L6-1</f>
+        <f t="shared" si="40"/>
         <v>6.5637733864960968E-2</v>
       </c>
     </row>
     <row r="31" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="AD31" s="55" t="s">
+      <c r="AD31" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AE31" s="61">
+      <c r="AE31" s="48">
         <v>0.04</v>
       </c>
     </row>
     <row r="32" spans="2:98" x14ac:dyDescent="0.2">
-      <c r="AD32" s="56" t="s">
+      <c r="AD32" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AE32" s="62">
+      <c r="AE32" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -3988,10 +3999,10 @@
       <c r="B33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AD33" s="56" t="s">
+      <c r="AD33" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AE33" s="63">
+      <c r="AE33" s="50">
         <f>+NPV(AE32,T19:CT19)</f>
         <v>5011.780157702924</v>
       </c>
@@ -4003,10 +4014,10 @@
       <c r="L34" s="33">
         <v>438.61599999999999</v>
       </c>
-      <c r="AD34" s="56" t="s">
+      <c r="AD34" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AE34" s="59">
+      <c r="AE34" s="46">
         <f>+Main!C11</f>
         <v>1083.104</v>
       </c>
@@ -4018,10 +4029,10 @@
       <c r="L35" s="33">
         <v>644.48800000000006</v>
       </c>
-      <c r="AD35" s="57" t="s">
+      <c r="AD35" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="AE35" s="59">
+      <c r="AE35" s="46">
         <f>+AE33-AE34</f>
         <v>3928.6761577029238</v>
       </c>
@@ -4036,7 +4047,7 @@
       <c r="AD36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AE36" s="60">
+      <c r="AE36" s="47">
         <f>+AE35/Main!C7</f>
         <v>24.603895098874126</v>
       </c>
@@ -4048,12 +4059,12 @@
       <c r="L37" s="3">
         <v>33.841000000000001</v>
       </c>
-      <c r="AD37" s="57" t="s">
+      <c r="AD37" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="AE37" s="60">
+      <c r="AE37" s="47">
         <f>+Main!C6</f>
-        <v>62.99</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="38" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4063,12 +4074,12 @@
       <c r="L38" s="3">
         <v>32.409999999999997</v>
       </c>
-      <c r="AD38" s="58" t="s">
+      <c r="AD38" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AE38" s="64">
+      <c r="AE38" s="51">
         <f>+AE36/AE37-1</f>
-        <v>-0.60939998255478445</v>
+        <v>-0.63222877281204592</v>
       </c>
     </row>
     <row r="39" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4360,27 +4371,27 @@
         <v>87</v>
       </c>
       <c r="G77" s="3">
-        <f>+G75-G76</f>
+        <f t="shared" ref="G77:L77" si="41">+G75-G76</f>
         <v>-11.217000000000001</v>
       </c>
       <c r="H77" s="3">
-        <f>+H75-H76</f>
+        <f t="shared" si="41"/>
         <v>26.832000000000001</v>
       </c>
       <c r="I77" s="3">
-        <f>+I75-I76</f>
+        <f t="shared" si="41"/>
         <v>-6.6970000000000036</v>
       </c>
       <c r="J77" s="3">
-        <f>+J75-J76</f>
+        <f t="shared" si="41"/>
         <v>15.606000000000002</v>
       </c>
       <c r="K77" s="3">
-        <f>+K75-K76</f>
+        <f t="shared" si="41"/>
         <v>37.437999999999995</v>
       </c>
-      <c r="L77" s="52">
-        <f>+L75-L76</f>
+      <c r="L77" s="39">
+        <f t="shared" si="41"/>
         <v>10.846000000000004</v>
       </c>
       <c r="S77" s="3">

--- a/$GTLB.xlsx
+++ b/$GTLB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24544E9F-1699-481C-A785-92D0A005B818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50F5335-D186-40E4-9B9D-DADCC8591A5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F69BF4D-74DA-4B99-851A-86D37B91804A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F69BF4D-74DA-4B99-851A-86D37B91804A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -404,11 +404,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0\x"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0\x"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -601,7 +602,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,10 +693,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,10 +705,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,21 +735,7 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -823,16 +825,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -847,7 +849,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="9525"/>
+          <a:off x="8524875" y="0"/>
           <a:ext cx="0" cy="14316075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1223,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C351D5-6D1F-45E0-98C8-B94DC16F2D33}">
   <dimension ref="A2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1246,29 +1248,29 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="G5" s="54" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="G5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>66.900000000000006</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="D6" s="19"/>
       <c r="G6" s="17"/>
@@ -1286,14 +1288,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="29">
-        <f>+'Financial Model'!L21</f>
-        <v>159.67699999999999</v>
+        <f>+'Financial Model'!M21</f>
+        <v>161.31700000000001</v>
       </c>
       <c r="D7" s="19" t="str">
         <f>+C30</f>
-        <v>Q225</v>
-      </c>
-      <c r="G7" s="65">
+        <v>Q325</v>
+      </c>
+      <c r="G7" s="52">
         <v>45630</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -1313,7 +1315,7 @@
       </c>
       <c r="C8" s="5">
         <f>C6*C7</f>
-        <v>10682.391300000001</v>
+        <v>10751.778050000001</v>
       </c>
       <c r="D8" s="19"/>
       <c r="G8" s="17"/>
@@ -1331,12 +1333,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="5">
-        <f>+'Financial Model'!L62</f>
-        <v>1083.104</v>
+        <f>+'Financial Model'!M62</f>
+        <v>916.97</v>
       </c>
       <c r="D9" s="19" t="str">
         <f>+C30</f>
-        <v>Q225</v>
+        <v>Q325</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="13"/>
@@ -1353,12 +1355,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <f>+'Financial Model'!L63</f>
+        <f>+'Financial Model'!M63</f>
         <v>0</v>
       </c>
       <c r="D10" s="19" t="str">
         <f>+C30</f>
-        <v>Q225</v>
+        <v>Q325</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="13"/>
@@ -1376,11 +1378,11 @@
       </c>
       <c r="C11" s="5">
         <f>C9-C10</f>
-        <v>1083.104</v>
+        <v>916.97</v>
       </c>
       <c r="D11" s="19" t="str">
         <f>+C30</f>
-        <v>Q225</v>
+        <v>Q325</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="13"/>
@@ -1398,7 +1400,7 @@
       </c>
       <c r="C12" s="6">
         <f>C8-C11</f>
-        <v>9599.2873000000018</v>
+        <v>9834.8080500000015</v>
       </c>
       <c r="D12" s="20"/>
       <c r="G12" s="17"/>
@@ -1434,11 +1436,11 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="17"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -1456,10 +1458,10 @@
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="59"/>
       <c r="G16" s="17"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1474,10 +1476,10 @@
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="59"/>
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1492,10 +1494,10 @@
       <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="59"/>
       <c r="G18" s="17"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1510,11 +1512,11 @@
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="52" t="str">
+      <c r="C19" s="62" t="str">
         <f>+C16</f>
         <v>Sytse Sijbrandij</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="63"/>
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -1548,11 +1550,11 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -1567,10 +1569,10 @@
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="58">
         <v>2011</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="59"/>
       <c r="G23" s="17"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -1585,10 +1587,10 @@
       <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="59"/>
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -1603,10 +1605,10 @@
       <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="58">
         <v>2021</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="59"/>
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -1619,8 +1621,8 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -1633,8 +1635,8 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -1649,10 +1651,10 @@
       <c r="B28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="56">
         <v>2130</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="57"/>
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -1665,8 +1667,8 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -1682,10 +1684,10 @@
         <v>21</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D30" s="35">
-        <v>45536</v>
+        <v>45631</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
@@ -1701,10 +1703,10 @@
       <c r="B31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="61"/>
       <c r="G31" s="18"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -1716,63 +1718,73 @@
       <c r="O31" s="16"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="59">
-        <f>+C6/'Financial Model'!L60</f>
-        <v>15.526641269527508</v>
-      </c>
-      <c r="D35" s="60"/>
+      <c r="C35" s="64">
+        <f>+C6/'Financial Model'!M60</f>
+        <v>13.959341604552462</v>
+      </c>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="59">
-        <f>+C8/SUM('Financial Model'!I6:L6)</f>
-        <v>16.05848203145435</v>
-      </c>
-      <c r="D36" s="60"/>
+      <c r="C36" s="64">
+        <f>+C8/SUM('Financial Model'!J6:M6)</f>
+        <v>15.109363937734422</v>
+      </c>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="59">
-        <f>+C6/SUM('Financial Model'!I20:L20)</f>
-        <v>-28.415490950371531</v>
-      </c>
-      <c r="D37" s="60"/>
+      <c r="C37" s="64">
+        <f>+C6/SUM('Financial Model'!J20:M20)</f>
+        <v>-200.06816543627292</v>
+      </c>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="59">
-        <f>+C6/'Financial Model'!L80</f>
-        <v>182.48020669627607</v>
-      </c>
-      <c r="D38" s="60"/>
+      <c r="C38" s="64">
+        <f>+C6/'Financial Model'!M80</f>
+        <v>146.20312822953488</v>
+      </c>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="62">
         <v>41</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -1785,16 +1797,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{3CFDFC33-4502-4D5A-AAC4-1C9E296A7A2D}"/>
@@ -1809,11 +1811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479A7C19-8595-4298-8C6A-8F2F334D2581}">
   <dimension ref="A1:CT81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1854,7 +1856,7 @@
       <c r="L1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="26" t="s">
         <v>102</v>
       </c>
       <c r="N1" s="21" t="s">
@@ -1932,6 +1934,9 @@
       <c r="L2" s="24">
         <v>45504</v>
       </c>
+      <c r="M2" s="24">
+        <v>45596</v>
+      </c>
       <c r="S2" s="24">
         <f>+J2</f>
         <v>45322</v>
@@ -1951,6 +1956,9 @@
       <c r="L3" s="25">
         <v>45536</v>
       </c>
+      <c r="M3" s="25">
+        <v>45631</v>
+      </c>
       <c r="S3" s="38">
         <v>45355</v>
       </c>
@@ -1983,6 +1991,9 @@
       <c r="L4" s="36">
         <v>163.18100000000001</v>
       </c>
+      <c r="M4" s="36">
+        <v>175.25700000000001</v>
+      </c>
       <c r="R4" s="36">
         <v>369.34899999999999</v>
       </c>
@@ -2019,6 +2030,9 @@
       <c r="L5" s="36">
         <v>19.402999999999999</v>
       </c>
+      <c r="M5" s="36">
+        <v>20.79</v>
+      </c>
       <c r="R5" s="36">
         <v>54.987000000000002</v>
       </c>
@@ -2032,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="33">
-        <f t="shared" ref="E6:L6" si="0">+E4+E5</f>
+        <f t="shared" ref="E6:M6" si="0">+E4+E5</f>
         <v>112.98099999999999</v>
       </c>
       <c r="F6" s="33">
@@ -2064,12 +2078,12 @@
         <v>182.584</v>
       </c>
       <c r="M6" s="33">
-        <f>+I6*(1+M28)</f>
-        <v>194.56840000000003</v>
+        <f t="shared" si="0"/>
+        <v>196.047</v>
       </c>
       <c r="N6" s="33">
         <f t="shared" ref="N6" si="1">+J6*(1+N28)</f>
-        <v>209.63712000000001</v>
+        <v>216.18827999999999</v>
       </c>
       <c r="R6" s="33">
         <f>+R4+R5</f>
@@ -2081,39 +2095,39 @@
       </c>
       <c r="T6" s="33">
         <f>+SUM(K6:N6)</f>
-        <v>755.97652000000005</v>
+        <v>764.00627999999995</v>
       </c>
       <c r="U6" s="33">
         <f>+T6*(1+U28)</f>
-        <v>982.76947600000005</v>
+        <v>993.20816400000001</v>
       </c>
       <c r="V6" s="33">
         <f t="shared" ref="V6:AB6" si="2">+U6*(1+V28)</f>
-        <v>1228.461845</v>
+        <v>1241.510205</v>
       </c>
       <c r="W6" s="33">
         <f t="shared" si="2"/>
-        <v>1498.7234509</v>
+        <v>1514.6424500999999</v>
       </c>
       <c r="X6" s="33">
         <f t="shared" si="2"/>
-        <v>1798.4681410799999</v>
+        <v>1817.5709401199999</v>
       </c>
       <c r="Y6" s="33">
         <f t="shared" si="2"/>
-        <v>2068.2383622419998</v>
+        <v>2090.2065811379998</v>
       </c>
       <c r="Z6" s="33">
         <f t="shared" si="2"/>
-        <v>2275.0621984661998</v>
+        <v>2299.2272392517998</v>
       </c>
       <c r="AA6" s="33">
         <f t="shared" si="2"/>
-        <v>2388.8153083895099</v>
+        <v>2414.18860121439</v>
       </c>
       <c r="AB6" s="33">
         <f t="shared" si="2"/>
-        <v>2508.2560738089855</v>
+        <v>2534.8980312751096</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -2144,6 +2158,9 @@
       <c r="L7" s="40">
         <v>16.63</v>
       </c>
+      <c r="M7" s="40">
+        <v>17.170000000000002</v>
+      </c>
       <c r="R7" s="40">
         <v>40.841000000000001</v>
       </c>
@@ -2180,6 +2197,9 @@
       <c r="L8" s="40">
         <v>4.74</v>
       </c>
+      <c r="M8" s="40">
+        <v>4.9550000000000001</v>
+      </c>
       <c r="R8" s="40">
         <v>10.839</v>
       </c>
@@ -2193,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E9:L9" si="3">+E7+E8</f>
+        <f t="shared" ref="E9:M9" si="3">+E7+E8</f>
         <v>14.564</v>
       </c>
       <c r="F9" s="3">
@@ -2225,12 +2245,12 @@
         <v>21.369999999999997</v>
       </c>
       <c r="M9" s="3">
-        <f>+M6*(1-M23)</f>
-        <v>21.402524</v>
+        <f t="shared" si="3"/>
+        <v>22.125</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ref="N9" si="4">+N6*(1-N23)</f>
-        <v>23.060083199999998</v>
+        <v>23.780710799999998</v>
       </c>
       <c r="R9" s="3">
         <f>+R7+R8</f>
@@ -2242,39 +2262,39 @@
       </c>
       <c r="T9" s="3">
         <f>+SUM(K9:N9)</f>
-        <v>84.608607199999994</v>
+        <v>86.051710799999995</v>
       </c>
       <c r="U9" s="3">
         <f>+U6*(1-U23)</f>
-        <v>108.10464236</v>
+        <v>109.25289803999999</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ref="V9:AB9" si="5">+V6*(1-V23)</f>
-        <v>135.13080294999997</v>
+        <v>136.56612254999999</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" si="5"/>
-        <v>164.85957959899997</v>
+        <v>166.61066951099997</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" si="5"/>
-        <v>197.83149551879995</v>
+        <v>199.93280341319996</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" si="5"/>
-        <v>227.50621984661996</v>
+        <v>229.92272392517995</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" si="5"/>
-        <v>250.25684183128195</v>
+        <v>252.91499631769796</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" si="5"/>
-        <v>262.76968392284607</v>
+        <v>265.56074613358288</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" si="5"/>
-        <v>275.90816811898839</v>
+        <v>278.83878344026203</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -2315,11 +2335,11 @@
       </c>
       <c r="M10" s="33">
         <f t="shared" si="6"/>
-        <v>173.16587600000003</v>
+        <v>173.922</v>
       </c>
       <c r="N10" s="33">
         <f t="shared" ref="N10" si="7">+N6-N9</f>
-        <v>186.5770368</v>
+        <v>192.40756919999998</v>
       </c>
       <c r="R10" s="33">
         <f>+R6-R9</f>
@@ -2331,39 +2351,39 @@
       </c>
       <c r="T10" s="33">
         <f>+T6-T9</f>
-        <v>671.36791280000011</v>
+        <v>677.95456919999992</v>
       </c>
       <c r="U10" s="33">
         <f t="shared" ref="U10:AB10" si="8">+U6-U9</f>
-        <v>874.6648336400001</v>
+        <v>883.95526596000002</v>
       </c>
       <c r="V10" s="33">
         <f t="shared" si="8"/>
-        <v>1093.3310420500002</v>
+        <v>1104.94408245</v>
       </c>
       <c r="W10" s="33">
         <f t="shared" si="8"/>
-        <v>1333.863871301</v>
+        <v>1348.0317805889999</v>
       </c>
       <c r="X10" s="33">
         <f t="shared" si="8"/>
-        <v>1600.6366455611999</v>
+        <v>1617.6381367068</v>
       </c>
       <c r="Y10" s="33">
         <f t="shared" si="8"/>
-        <v>1840.7321423953799</v>
+        <v>1860.2838572128198</v>
       </c>
       <c r="Z10" s="33">
         <f t="shared" si="8"/>
-        <v>2024.8053566349179</v>
+        <v>2046.312242934102</v>
       </c>
       <c r="AA10" s="33">
         <f t="shared" si="8"/>
-        <v>2126.0456244666639</v>
+        <v>2148.627855080807</v>
       </c>
       <c r="AB10" s="33">
         <f t="shared" si="8"/>
-        <v>2232.3479056899973</v>
+        <v>2256.0592478348476</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2395,7 +2415,7 @@
         <v>97.778000000000006</v>
       </c>
       <c r="M11" s="3">
-        <v>102</v>
+        <v>95.34</v>
       </c>
       <c r="N11" s="3">
         <v>102</v>
@@ -2409,39 +2429,39 @@
       </c>
       <c r="T11" s="3">
         <f t="shared" ref="T11:T13" si="9">+SUM(K11:N11)</f>
-        <v>394.202</v>
+        <v>387.54200000000003</v>
       </c>
       <c r="U11" s="3">
         <f>+T11+25</f>
-        <v>419.202</v>
+        <v>412.54200000000003</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ref="V11:AB11" si="10">+U11+25</f>
-        <v>444.202</v>
+        <v>437.54200000000003</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" si="10"/>
-        <v>469.202</v>
+        <v>462.54200000000003</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" si="10"/>
-        <v>494.202</v>
+        <v>487.54200000000003</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" si="10"/>
-        <v>519.202</v>
+        <v>512.54200000000003</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" si="10"/>
-        <v>544.202</v>
+        <v>537.54200000000003</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" si="10"/>
-        <v>569.202</v>
+        <v>562.54200000000003</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" si="10"/>
-        <v>594.202</v>
+        <v>587.54200000000003</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2473,7 +2493,7 @@
         <v>61.273000000000003</v>
       </c>
       <c r="M12" s="3">
-        <v>70</v>
+        <v>61.353999999999999</v>
       </c>
       <c r="N12" s="3">
         <v>70</v>
@@ -2487,39 +2507,39 @@
       </c>
       <c r="T12" s="3">
         <f t="shared" si="9"/>
-        <v>255.41300000000001</v>
+        <v>246.767</v>
       </c>
       <c r="U12" s="3">
         <f>+U6*0.33</f>
-        <v>324.31392708000004</v>
+        <v>327.75869412000003</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ref="V12:AB12" si="11">+V6*0.33</f>
-        <v>405.39240885000004</v>
+        <v>409.69836765000002</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" si="11"/>
-        <v>494.57873879700003</v>
+        <v>499.83200853299996</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" si="11"/>
-        <v>593.49448655640003</v>
+        <v>599.7984102396</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" si="11"/>
-        <v>682.51865953985998</v>
+        <v>689.76817177553994</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" si="11"/>
-        <v>750.77052549384598</v>
+        <v>758.74498895309398</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" si="11"/>
-        <v>788.30905176853832</v>
+        <v>796.6822384007487</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="11"/>
-        <v>827.72450435696533</v>
+        <v>836.51635032078616</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2551,7 +2571,7 @@
         <v>43.167999999999999</v>
       </c>
       <c r="M13" s="3">
-        <v>46</v>
+        <v>45.96</v>
       </c>
       <c r="N13" s="3">
         <v>46</v>
@@ -2565,39 +2585,39 @@
       </c>
       <c r="T13" s="3">
         <f t="shared" si="9"/>
-        <v>192.655</v>
+        <v>192.61500000000001</v>
       </c>
       <c r="U13" s="3">
         <f>+T13+35</f>
-        <v>227.655</v>
+        <v>227.61500000000001</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" ref="V13:AB13" si="12">+U13+35</f>
-        <v>262.65499999999997</v>
+        <v>262.61500000000001</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" si="12"/>
-        <v>297.65499999999997</v>
+        <v>297.61500000000001</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="12"/>
-        <v>332.65499999999997</v>
+        <v>332.61500000000001</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" si="12"/>
-        <v>367.65499999999997</v>
+        <v>367.61500000000001</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" si="12"/>
-        <v>402.65499999999997</v>
+        <v>402.61500000000001</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" si="12"/>
-        <v>437.65499999999997</v>
+        <v>437.61500000000001</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="12"/>
-        <v>472.65499999999997</v>
+        <v>472.61500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -2638,11 +2658,11 @@
       </c>
       <c r="M14" s="33">
         <f t="shared" si="13"/>
-        <v>-44.834123999999974</v>
+        <v>-28.732000000000028</v>
       </c>
       <c r="N14" s="33">
         <f t="shared" ref="N14" si="14">+N10-SUM(N11:N13)</f>
-        <v>-31.422963199999998</v>
+        <v>-25.592430800000017</v>
       </c>
       <c r="R14" s="33">
         <f>+R10-SUM(R11:R13)</f>
@@ -2654,39 +2674,39 @@
       </c>
       <c r="T14" s="33">
         <f>+T10-SUM(T11:T13)</f>
-        <v>-170.90208719999987</v>
+        <v>-148.96943080000005</v>
       </c>
       <c r="U14" s="33">
         <f t="shared" ref="U14:AB14" si="15">+U10-SUM(U11:U13)</f>
-        <v>-96.506093439999859</v>
+        <v>-83.960428160000106</v>
       </c>
       <c r="V14" s="33">
         <f t="shared" si="15"/>
-        <v>-18.918366799999831</v>
+        <v>-4.9112852000000657</v>
       </c>
       <c r="W14" s="33">
         <f t="shared" si="15"/>
-        <v>72.428132504000132</v>
+        <v>88.042772055999876</v>
       </c>
       <c r="X14" s="33">
         <f t="shared" si="15"/>
-        <v>180.28515900479988</v>
+        <v>197.68272646719993</v>
       </c>
       <c r="Y14" s="33">
         <f t="shared" si="15"/>
-        <v>271.35648285551997</v>
+        <v>290.35868543727997</v>
       </c>
       <c r="Z14" s="33">
         <f t="shared" si="15"/>
-        <v>327.17783114107192</v>
+        <v>347.41025398100805</v>
       </c>
       <c r="AA14" s="33">
         <f t="shared" si="15"/>
-        <v>330.87957269812546</v>
+        <v>351.78861668005834</v>
       </c>
       <c r="AB14" s="33">
         <f t="shared" si="15"/>
-        <v>337.76640133303204</v>
+        <v>359.3858975140613</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2718,12 +2738,11 @@
         <v>12.827</v>
       </c>
       <c r="M15" s="3">
-        <f>+AVERAGE(G15:L15)</f>
-        <v>10.707333333333333</v>
+        <v>12.586</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ref="N15:N16" si="16">+AVERAGE(H15:M15)</f>
-        <v>11.272722222222223</v>
+        <v>11.585833333333333</v>
       </c>
       <c r="R15" s="3">
         <v>14.496</v>
@@ -2734,7 +2753,7 @@
       </c>
       <c r="T15" s="3">
         <f>+SUM(K15:N15)</f>
-        <v>47.110055555555554</v>
+        <v>49.301833333333335</v>
       </c>
       <c r="U15" s="3">
         <v>10</v>
@@ -2796,12 +2815,11 @@
         <v>1.032</v>
       </c>
       <c r="M16" s="3">
-        <f>+AVERAGE(G16:L16)</f>
-        <v>-2.8206666666666664</v>
+        <v>4.992</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="16"/>
-        <v>-2.9184444444444444</v>
+        <f>+AVERAGE(K16:M16)</f>
+        <v>1.819</v>
       </c>
       <c r="R16" s="3">
         <f>21.585-2.468</f>
@@ -2813,7 +2831,7 @@
       </c>
       <c r="T16" s="3">
         <f>+SUM(K16:N16)</f>
-        <v>-5.274111111111111</v>
+        <v>7.2759999999999998</v>
       </c>
       <c r="U16" s="3">
         <v>0</v>
@@ -2878,11 +2896,11 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="17"/>
-        <v>-36.947457333333311</v>
+        <v>-11.154000000000028</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" ref="N17" si="18">+N14+N15+N16</f>
-        <v>-23.06868542222222</v>
+        <v>-12.187597466666684</v>
       </c>
       <c r="R17" s="3">
         <f>+R14+R15+R16</f>
@@ -2894,39 +2912,39 @@
       </c>
       <c r="T17" s="3">
         <f>+T14+T15+T16</f>
-        <v>-129.0661427555554</v>
+        <v>-92.391597466666724</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" ref="U17:AB17" si="19">+U14+U15+U16</f>
-        <v>-86.506093439999859</v>
+        <v>-73.960428160000106</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" si="19"/>
-        <v>-28.918366799999831</v>
+        <v>-14.911285200000066</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" si="19"/>
-        <v>77.428132504000132</v>
+        <v>93.042772055999876</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="19"/>
-        <v>175.28515900479988</v>
+        <v>192.68272646719993</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="19"/>
-        <v>272.35648285551997</v>
+        <v>291.35868543727997</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="19"/>
-        <v>329.17783114107192</v>
+        <v>349.41025398100805</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" si="19"/>
-        <v>331.87957269812546</v>
+        <v>352.78861668005834</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="19"/>
-        <v>339.76640133303204</v>
+        <v>361.3858975140613</v>
       </c>
     </row>
     <row r="18" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2958,10 +2976,10 @@
         <v>39.42</v>
       </c>
       <c r="M18" s="3">
-        <v>10</v>
+        <v>39.420999999999999</v>
       </c>
       <c r="N18" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R18" s="3">
         <v>-2.8980000000000001</v>
@@ -2972,39 +2990,39 @@
       </c>
       <c r="T18" s="3">
         <f>+SUM(K18:N18)</f>
-        <v>46.71</v>
+        <v>96.131</v>
       </c>
       <c r="U18" s="3">
         <f>-(+U17*U26)</f>
-        <v>1.7301218687999973</v>
+        <v>1.479208563200002</v>
       </c>
       <c r="V18" s="3">
         <f>-(+V17*V26)</f>
-        <v>2.8918366799999831</v>
+        <v>1.4911285200000066</v>
       </c>
       <c r="W18" s="3">
         <f>-(+W17*W26)</f>
-        <v>-15.485626500800027</v>
+        <v>-18.608554411199975</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" ref="X18:AB18" si="20">-(+X17*X26)</f>
-        <v>-35.057031800959976</v>
+        <v>-38.536545293439985</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" si="20"/>
-        <v>-54.471296571103998</v>
+        <v>-58.271737087455996</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" si="20"/>
-        <v>-65.83556622821439</v>
+        <v>-69.882050796201611</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="20"/>
-        <v>-66.3759145396251</v>
+        <v>-70.557723336011676</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="20"/>
-        <v>-67.953280266606413</v>
+        <v>-72.27717950281226</v>
       </c>
     </row>
     <row r="19" spans="2:98" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -3045,11 +3063,11 @@
       </c>
       <c r="M19" s="33">
         <f t="shared" si="21"/>
-        <v>-26.947457333333311</v>
+        <v>28.266999999999971</v>
       </c>
       <c r="N19" s="33">
         <f t="shared" ref="N19" si="22">+N17+N18</f>
-        <v>-13.06868542222222</v>
+        <v>17.812402533333316</v>
       </c>
       <c r="R19" s="33">
         <f>+R17+R18</f>
@@ -3061,319 +3079,319 @@
       </c>
       <c r="T19" s="33">
         <f>+T17+T18</f>
-        <v>-82.356142755555396</v>
+        <v>3.7394025333332763</v>
       </c>
       <c r="U19" s="33">
         <f t="shared" ref="U19:AB19" si="23">+U17+U18</f>
-        <v>-84.775971571199861</v>
+        <v>-72.481219596800102</v>
       </c>
       <c r="V19" s="33">
         <f t="shared" si="23"/>
-        <v>-26.026530119999848</v>
+        <v>-13.420156680000058</v>
       </c>
       <c r="W19" s="33">
         <f t="shared" si="23"/>
-        <v>61.942506003200108</v>
+        <v>74.434217644799901</v>
       </c>
       <c r="X19" s="33">
         <f t="shared" si="23"/>
-        <v>140.2281272038399</v>
+        <v>154.14618117375994</v>
       </c>
       <c r="Y19" s="33">
         <f t="shared" si="23"/>
-        <v>217.88518628441597</v>
+        <v>233.08694834982398</v>
       </c>
       <c r="Z19" s="33">
         <f t="shared" si="23"/>
-        <v>263.34226491285756</v>
+        <v>279.52820318480644</v>
       </c>
       <c r="AA19" s="33">
         <f t="shared" si="23"/>
-        <v>265.50365815850034</v>
+        <v>282.23089334404665</v>
       </c>
       <c r="AB19" s="33">
         <f t="shared" si="23"/>
-        <v>271.81312106642565</v>
+        <v>289.10871801124904</v>
       </c>
       <c r="AC19" s="33">
         <f>+AB19*(1+$AE$31)</f>
-        <v>282.68564590908267</v>
+        <v>294.89089237147402</v>
       </c>
       <c r="AD19" s="33">
         <f t="shared" ref="AD19:CO19" si="24">+AC19*(1+$AE$31)</f>
-        <v>293.993071745446</v>
+        <v>300.78871021890353</v>
       </c>
       <c r="AE19" s="33">
         <f t="shared" si="24"/>
-        <v>305.75279461526384</v>
+        <v>306.80448442328162</v>
       </c>
       <c r="AF19" s="33">
         <f t="shared" si="24"/>
-        <v>317.98290639987442</v>
+        <v>312.94057411174725</v>
       </c>
       <c r="AG19" s="33">
         <f t="shared" si="24"/>
-        <v>330.70222265586943</v>
+        <v>319.19938559398219</v>
       </c>
       <c r="AH19" s="33">
         <f t="shared" si="24"/>
-        <v>343.93031156210424</v>
+        <v>325.58337330586181</v>
       </c>
       <c r="AI19" s="33">
         <f t="shared" si="24"/>
-        <v>357.68752402458841</v>
+        <v>332.09504077197903</v>
       </c>
       <c r="AJ19" s="33">
         <f t="shared" si="24"/>
-        <v>371.99502498557194</v>
+        <v>338.73694158741864</v>
       </c>
       <c r="AK19" s="33">
         <f t="shared" si="24"/>
-        <v>386.87482598499486</v>
+        <v>345.51168041916702</v>
       </c>
       <c r="AL19" s="33">
         <f t="shared" si="24"/>
-        <v>402.34981902439466</v>
+        <v>352.42191402755037</v>
       </c>
       <c r="AM19" s="33">
         <f t="shared" si="24"/>
-        <v>418.44381178537049</v>
+        <v>359.47035230810138</v>
       </c>
       <c r="AN19" s="33">
         <f t="shared" si="24"/>
-        <v>435.18156425678529</v>
+        <v>366.65975935426343</v>
       </c>
       <c r="AO19" s="33">
         <f t="shared" si="24"/>
-        <v>452.58882682705672</v>
+        <v>373.99295454134869</v>
       </c>
       <c r="AP19" s="33">
         <f t="shared" si="24"/>
-        <v>470.69237990013903</v>
+        <v>381.4728136321757</v>
       </c>
       <c r="AQ19" s="33">
         <f t="shared" si="24"/>
-        <v>489.52007509614458</v>
+        <v>389.1022699048192</v>
       </c>
       <c r="AR19" s="33">
         <f t="shared" si="24"/>
-        <v>509.10087809999038</v>
+        <v>396.88431530291558</v>
       </c>
       <c r="AS19" s="33">
         <f t="shared" si="24"/>
-        <v>529.46491322399004</v>
+        <v>404.82200160897389</v>
       </c>
       <c r="AT19" s="33">
         <f t="shared" si="24"/>
-        <v>550.64350975294963</v>
+        <v>412.91844164115338</v>
       </c>
       <c r="AU19" s="33">
         <f t="shared" si="24"/>
-        <v>572.66925014306764</v>
+        <v>421.17681047397645</v>
       </c>
       <c r="AV19" s="33">
         <f t="shared" si="24"/>
-        <v>595.57602014879035</v>
+        <v>429.600346683456</v>
       </c>
       <c r="AW19" s="33">
         <f t="shared" si="24"/>
-        <v>619.39906095474203</v>
+        <v>438.19235361712515</v>
       </c>
       <c r="AX19" s="33">
         <f t="shared" si="24"/>
-        <v>644.17502339293173</v>
+        <v>446.95620068946766</v>
       </c>
       <c r="AY19" s="33">
         <f t="shared" si="24"/>
-        <v>669.94202432864904</v>
+        <v>455.89532470325702</v>
       </c>
       <c r="AZ19" s="33">
         <f t="shared" si="24"/>
-        <v>696.73970530179497</v>
+        <v>465.01323119732217</v>
       </c>
       <c r="BA19" s="33">
         <f t="shared" si="24"/>
-        <v>724.60929351386676</v>
+        <v>474.31349582126865</v>
       </c>
       <c r="BB19" s="33">
         <f t="shared" si="24"/>
-        <v>753.59366525442147</v>
+        <v>483.79976573769403</v>
       </c>
       <c r="BC19" s="33">
         <f t="shared" si="24"/>
-        <v>783.73741186459836</v>
+        <v>493.47576105244792</v>
       </c>
       <c r="BD19" s="33">
         <f t="shared" si="24"/>
-        <v>815.08690833918229</v>
+        <v>503.34527627349689</v>
       </c>
       <c r="BE19" s="33">
         <f t="shared" si="24"/>
-        <v>847.69038467274959</v>
+        <v>513.4121817989668</v>
       </c>
       <c r="BF19" s="33">
         <f t="shared" si="24"/>
-        <v>881.59800005965963</v>
+        <v>523.68042543494619</v>
       </c>
       <c r="BG19" s="33">
         <f t="shared" si="24"/>
-        <v>916.86192006204601</v>
+        <v>534.15403394364512</v>
       </c>
       <c r="BH19" s="33">
         <f t="shared" si="24"/>
-        <v>953.53639686452789</v>
+        <v>544.83711462251802</v>
       </c>
       <c r="BI19" s="33">
         <f t="shared" si="24"/>
-        <v>991.67785273910908</v>
+        <v>555.73385691496844</v>
       </c>
       <c r="BJ19" s="33">
         <f t="shared" si="24"/>
-        <v>1031.3449668486735</v>
+        <v>566.84853405326783</v>
       </c>
       <c r="BK19" s="33">
         <f t="shared" si="24"/>
-        <v>1072.5987655226204</v>
+        <v>578.18550473433322</v>
       </c>
       <c r="BL19" s="33">
         <f t="shared" si="24"/>
-        <v>1115.5027161435253</v>
+        <v>589.74921482901993</v>
       </c>
       <c r="BM19" s="33">
         <f t="shared" si="24"/>
-        <v>1160.1228247892664</v>
+        <v>601.54419912560036</v>
       </c>
       <c r="BN19" s="33">
         <f t="shared" si="24"/>
-        <v>1206.527737780837</v>
+        <v>613.57508310811238</v>
       </c>
       <c r="BO19" s="33">
         <f t="shared" si="24"/>
-        <v>1254.7888472920706</v>
+        <v>625.8465847702746</v>
       </c>
       <c r="BP19" s="33">
         <f t="shared" si="24"/>
-        <v>1304.9804011837534</v>
+        <v>638.36351646568005</v>
       </c>
       <c r="BQ19" s="33">
         <f t="shared" si="24"/>
-        <v>1357.1796172311035</v>
+        <v>651.1307867949937</v>
       </c>
       <c r="BR19" s="33">
         <f t="shared" si="24"/>
-        <v>1411.4668019203477</v>
+        <v>664.15340253089357</v>
       </c>
       <c r="BS19" s="33">
         <f t="shared" si="24"/>
-        <v>1467.9254739971616</v>
+        <v>677.43647058151146</v>
       </c>
       <c r="BT19" s="33">
         <f t="shared" si="24"/>
-        <v>1526.642492957048</v>
+        <v>690.98519999314169</v>
       </c>
       <c r="BU19" s="33">
         <f t="shared" si="24"/>
-        <v>1587.7081926753301</v>
+        <v>704.80490399300459</v>
       </c>
       <c r="BV19" s="33">
         <f t="shared" si="24"/>
-        <v>1651.2165203823433</v>
+        <v>718.90100207286469</v>
       </c>
       <c r="BW19" s="33">
         <f t="shared" si="24"/>
-        <v>1717.265181197637</v>
+        <v>733.27902211432195</v>
       </c>
       <c r="BX19" s="33">
         <f t="shared" si="24"/>
-        <v>1785.9557884455426</v>
+        <v>747.9446025566084</v>
       </c>
       <c r="BY19" s="33">
         <f t="shared" si="24"/>
-        <v>1857.3940199833644</v>
+        <v>762.90349460774053</v>
       </c>
       <c r="BZ19" s="33">
         <f t="shared" si="24"/>
-        <v>1931.689780782699</v>
+        <v>778.16156449989535</v>
       </c>
       <c r="CA19" s="33">
         <f t="shared" si="24"/>
-        <v>2008.957372014007</v>
+        <v>793.72479578989328</v>
       </c>
       <c r="CB19" s="33">
         <f t="shared" si="24"/>
-        <v>2089.3156668945671</v>
+        <v>809.59929170569114</v>
       </c>
       <c r="CC19" s="33">
         <f t="shared" si="24"/>
-        <v>2172.88829357035</v>
+        <v>825.79127753980504</v>
       </c>
       <c r="CD19" s="33">
         <f t="shared" si="24"/>
-        <v>2259.803825313164</v>
+        <v>842.30710309060112</v>
       </c>
       <c r="CE19" s="33">
         <f t="shared" si="24"/>
-        <v>2350.1959783256907</v>
+        <v>859.15324515241321</v>
       </c>
       <c r="CF19" s="33">
         <f t="shared" si="24"/>
-        <v>2444.2038174587183</v>
+        <v>876.33631005546147</v>
       </c>
       <c r="CG19" s="33">
         <f t="shared" si="24"/>
-        <v>2541.9719701570671</v>
+        <v>893.86303625657069</v>
       </c>
       <c r="CH19" s="33">
         <f t="shared" si="24"/>
-        <v>2643.6508489633497</v>
+        <v>911.74029698170216</v>
       </c>
       <c r="CI19" s="33">
         <f t="shared" si="24"/>
-        <v>2749.3968829218838</v>
+        <v>929.9751029213362</v>
       </c>
       <c r="CJ19" s="33">
         <f t="shared" si="24"/>
-        <v>2859.3727582387592</v>
+        <v>948.57460497976297</v>
       </c>
       <c r="CK19" s="33">
         <f t="shared" si="24"/>
-        <v>2973.7476685683096</v>
+        <v>967.54609707935822</v>
       </c>
       <c r="CL19" s="33">
         <f t="shared" si="24"/>
-        <v>3092.6975753110419</v>
+        <v>986.89701902094544</v>
       </c>
       <c r="CM19" s="33">
         <f t="shared" si="24"/>
-        <v>3216.4054783234837</v>
+        <v>1006.6349594013643</v>
       </c>
       <c r="CN19" s="33">
         <f t="shared" si="24"/>
-        <v>3345.0616974564232</v>
+        <v>1026.7676585893917</v>
       </c>
       <c r="CO19" s="33">
         <f t="shared" si="24"/>
-        <v>3478.8641653546802</v>
+        <v>1047.3030117611795</v>
       </c>
       <c r="CP19" s="33">
         <f t="shared" ref="CP19:CT19" si="25">+CO19*(1+$AE$31)</f>
-        <v>3618.0187319688675</v>
+        <v>1068.249071996403</v>
       </c>
       <c r="CQ19" s="33">
         <f t="shared" si="25"/>
-        <v>3762.7394812476223</v>
+        <v>1089.614053436331</v>
       </c>
       <c r="CR19" s="33">
         <f t="shared" si="25"/>
-        <v>3913.2490604975274</v>
+        <v>1111.4063345050577</v>
       </c>
       <c r="CS19" s="33">
         <f t="shared" si="25"/>
-        <v>4069.7790229174284</v>
+        <v>1133.6344611951588</v>
       </c>
       <c r="CT19" s="33">
         <f t="shared" si="25"/>
-        <v>4232.5701838341256</v>
+        <v>1156.3071504190621</v>
       </c>
     </row>
     <row r="20" spans="2:98" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3414,11 +3432,11 @@
       </c>
       <c r="M20" s="27">
         <f t="shared" si="26"/>
-        <v>-0.16876229722084779</v>
+        <v>0.17522641755053694</v>
       </c>
       <c r="N20" s="27">
         <f t="shared" ref="N20" si="27">+N19/N21</f>
-        <v>-8.1844507488381055E-2</v>
+        <v>0.11041863246485686</v>
       </c>
       <c r="R20" s="27">
         <f>+R19/R21</f>
@@ -3430,39 +3448,39 @@
       </c>
       <c r="T20" s="27">
         <f>+SUM(K20:N20)</f>
-        <v>-0.51905422637545762</v>
+        <v>1.7197628349164995E-2</v>
       </c>
       <c r="U20" s="27">
         <f t="shared" ref="U20:AB20" si="28">+U19/U21</f>
-        <v>-0.53092162034106272</v>
+        <v>-0.44930924575091341</v>
       </c>
       <c r="V20" s="27">
         <f t="shared" si="28"/>
-        <v>-0.1629948591218513</v>
+        <v>-8.3191211589603437E-2</v>
       </c>
       <c r="W20" s="27">
         <f t="shared" si="28"/>
-        <v>0.3879237836582608</v>
+        <v>0.46141583121927571</v>
       </c>
       <c r="X20" s="27">
         <f t="shared" si="28"/>
-        <v>0.87819865856597956</v>
+        <v>0.95554827559252864</v>
       </c>
       <c r="Y20" s="27">
         <f t="shared" si="28"/>
-        <v>1.3645370734947173</v>
+        <v>1.4449000932934779</v>
       </c>
       <c r="Z20" s="27">
         <f t="shared" si="28"/>
-        <v>1.6492185155836945</v>
+        <v>1.7327882565681636</v>
       </c>
       <c r="AA20" s="27">
         <f t="shared" si="28"/>
-        <v>1.6627545492368991</v>
+        <v>1.7495421644590876</v>
       </c>
       <c r="AB20" s="27">
         <f t="shared" si="28"/>
-        <v>1.7022684611210486</v>
+        <v>1.7921776254904878</v>
       </c>
     </row>
     <row r="21" spans="2:98" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -3494,12 +3512,11 @@
         <v>159.67699999999999</v>
       </c>
       <c r="M21" s="28">
-        <f>+L21</f>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="N21" s="28">
         <f t="shared" ref="N21" si="29">+M21</f>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="R21" s="28">
         <v>148.40700000000001</v>
@@ -3509,40 +3526,40 @@
         <v>156.601</v>
       </c>
       <c r="T21" s="28">
-        <f>+L21</f>
-        <v>159.67699999999999</v>
+        <f>+N21</f>
+        <v>161.31700000000001</v>
       </c>
       <c r="U21" s="28">
         <f>+T21</f>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="V21" s="28">
         <f t="shared" ref="V21:AB21" si="30">+U21</f>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="W21" s="28">
         <f t="shared" si="30"/>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="X21" s="28">
         <f t="shared" si="30"/>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="Y21" s="28">
         <f t="shared" si="30"/>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="Z21" s="28">
         <f t="shared" si="30"/>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="AA21" s="28">
         <f t="shared" si="30"/>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
       <c r="AB21" s="28">
         <f t="shared" si="30"/>
-        <v>159.67699999999999</v>
+        <v>161.31700000000001</v>
       </c>
     </row>
     <row r="23" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3582,7 +3599,8 @@
         <v>0.88295798098409495</v>
       </c>
       <c r="M23" s="31">
-        <v>0.89</v>
+        <f t="shared" ref="M23" si="32">M10/M6</f>
+        <v>0.88714440924880256</v>
       </c>
       <c r="N23" s="31">
         <v>0.89</v>
@@ -3597,7 +3615,7 @@
       </c>
       <c r="T23" s="31">
         <f>T10/T6</f>
-        <v>0.88808037688789598</v>
+        <v>0.88736779650554698</v>
       </c>
       <c r="U23" s="31">
         <v>0.89</v>
@@ -3629,44 +3647,44 @@
         <v>56</v>
       </c>
       <c r="E24" s="31">
-        <f t="shared" ref="E24:M24" si="32">E14/E6</f>
+        <f t="shared" ref="E24:M24" si="33">E14/E6</f>
         <v>-0.50417326807162255</v>
       </c>
       <c r="F24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.37649604985883633</v>
       </c>
       <c r="G24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.45896845788868051</v>
       </c>
       <c r="H24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.3872805037934961</v>
       </c>
       <c r="I24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.26904214661784748</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.21298823414479273</v>
       </c>
       <c r="K24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.31704563589401086</v>
       </c>
       <c r="L24" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.22458156245892313</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" si="32"/>
-        <v>-0.23042859991653306</v>
+        <f t="shared" ref="M24" si="34">M14/M6</f>
+        <v>-0.14655669303789412</v>
       </c>
       <c r="N24" s="31">
-        <f t="shared" ref="N24" si="33">N14/N6</f>
-        <v>-0.14989217176805328</v>
+        <f t="shared" ref="N24" si="35">N14/N6</f>
+        <v>-0.11838028777508205</v>
       </c>
       <c r="R24" s="31">
         <f>R14/R6</f>
@@ -3678,39 +3696,39 @@
       </c>
       <c r="T24" s="31">
         <f>T14/T6</f>
-        <v>-0.22606798316963583</v>
+        <v>-0.19498456321589408</v>
       </c>
       <c r="U24" s="31">
-        <f t="shared" ref="U24:AB24" si="34">U14/U6</f>
-        <v>-9.8198098126523262E-2</v>
+        <f t="shared" ref="U24:AB24" si="36">U14/U6</f>
+        <v>-8.4534573116940376E-2</v>
       </c>
       <c r="V24" s="31">
-        <f t="shared" si="34"/>
-        <v>-1.5400044272437154E-2</v>
+        <f t="shared" si="36"/>
+        <v>-3.95589595657014E-3</v>
       </c>
       <c r="W24" s="31">
-        <f t="shared" si="34"/>
-        <v>4.832654914454447E-2</v>
+        <f t="shared" si="36"/>
+        <v>5.812775949214094E-2</v>
       </c>
       <c r="X24" s="31">
-        <f t="shared" si="34"/>
-        <v>0.10024373236688901</v>
+        <f t="shared" si="36"/>
+        <v>0.1087620417468539</v>
       </c>
       <c r="Y24" s="31">
-        <f t="shared" si="34"/>
-        <v>0.13120174531593431</v>
+        <f t="shared" si="36"/>
+        <v>0.13891387007268727</v>
       </c>
       <c r="Z24" s="31">
-        <f t="shared" si="34"/>
-        <v>0.14381049949388131</v>
+        <f t="shared" si="36"/>
+        <v>0.15109870309907258</v>
       </c>
       <c r="AA24" s="31">
-        <f t="shared" si="34"/>
-        <v>0.13851199443342385</v>
+        <f t="shared" si="36"/>
+        <v>0.14571712272317949</v>
       </c>
       <c r="AB24" s="31">
-        <f t="shared" si="34"/>
-        <v>0.13466184926649336</v>
+        <f t="shared" si="36"/>
+        <v>0.14177528763682942</v>
       </c>
     </row>
     <row r="25" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3718,44 +3736,44 @@
         <v>57</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" ref="E25:M25" si="35">E19/E6</f>
+        <f t="shared" ref="E25:M25" si="37">E19/E6</f>
         <v>-0.44666802382701509</v>
       </c>
       <c r="F25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.34270627384933317</v>
       </c>
       <c r="G25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.43063415249294601</v>
       </c>
       <c r="H25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.36686941632457126</v>
       </c>
       <c r="I25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1.9132680332469199</v>
       </c>
       <c r="J25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.22940059470383878</v>
       </c>
       <c r="K25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.32280257939439799</v>
       </c>
       <c r="L25" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6.7223853130613728E-2</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" si="35"/>
-        <v>-0.13849863252888603</v>
+        <f t="shared" ref="M25" si="38">M19/M6</f>
+        <v>0.14418481282549578</v>
       </c>
       <c r="N25" s="31">
-        <f t="shared" ref="N25" si="36">N19/N6</f>
-        <v>-6.2339558100312671E-2</v>
+        <f t="shared" ref="N25" si="39">N19/N6</f>
+        <v>8.2393007305175459E-2</v>
       </c>
       <c r="R25" s="31">
         <f>R19/R6</f>
@@ -3767,39 +3785,39 @@
       </c>
       <c r="T25" s="31">
         <f>T19/T6</f>
-        <v>-0.10894008024952334</v>
+        <v>4.8944657016867406E-3</v>
       </c>
       <c r="U25" s="31">
-        <f t="shared" ref="U25:AB25" si="37">U19/U6</f>
-        <v>-8.6262316485702345E-2</v>
+        <f t="shared" ref="U25:AB25" si="40">U19/U6</f>
+        <v>-7.2976866505902085E-2</v>
       </c>
       <c r="V25" s="31">
-        <f t="shared" si="37"/>
-        <v>-2.1186274710876224E-2</v>
+        <f t="shared" si="40"/>
+        <v>-1.0809541980365807E-2</v>
       </c>
       <c r="W25" s="31">
-        <f t="shared" si="37"/>
-        <v>4.1330177335920745E-2</v>
+        <f t="shared" si="40"/>
+        <v>4.9143094886773833E-2</v>
       </c>
       <c r="X25" s="31">
-        <f t="shared" si="37"/>
-        <v>7.7970870876606896E-2</v>
+        <f t="shared" si="40"/>
+        <v>8.4808893986598882E-2</v>
       </c>
       <c r="Y25" s="31">
-        <f t="shared" si="37"/>
-        <v>0.10534819886438299</v>
+        <f t="shared" si="40"/>
+        <v>0.11151383334699926</v>
       </c>
       <c r="Z25" s="31">
-        <f t="shared" si="37"/>
-        <v>0.11575167707080602</v>
+        <f t="shared" si="40"/>
+        <v>0.12157484845898432</v>
       </c>
       <c r="AA25" s="31">
-        <f t="shared" si="37"/>
-        <v>0.11114448958278714</v>
+        <f t="shared" si="40"/>
+        <v>0.11690507245460371</v>
       </c>
       <c r="AB25" s="31">
-        <f t="shared" si="37"/>
-        <v>0.10836737281519103</v>
+        <f t="shared" si="40"/>
+        <v>0.11405141920672091</v>
       </c>
     </row>
     <row r="26" spans="2:98" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3807,44 +3825,44 @@
         <v>58</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" ref="E26:M26" si="38">E18/E17</f>
+        <f t="shared" ref="E26:M26" si="41">E18/E17</f>
         <v>1.2896825396825399E-3</v>
       </c>
       <c r="F26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.0795841119256388E-3</v>
       </c>
       <c r="G26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.7957555689343765E-2</v>
       </c>
       <c r="H26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8.5099169350737441E-2</v>
       </c>
       <c r="I26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8.6849528190212091</v>
       </c>
       <c r="J26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>4.9352027706401506E-2</v>
       </c>
       <c r="K26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.30331233295150811</v>
       </c>
       <c r="L26" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-1.4521476460620335</v>
       </c>
       <c r="M26" s="31">
-        <f t="shared" si="38"/>
-        <v>-0.27065461933636731</v>
+        <f t="shared" ref="M26" si="42">M18/M17</f>
+        <v>-3.5342478034785638</v>
       </c>
       <c r="N26" s="31">
-        <f t="shared" ref="N26" si="39">N18/N17</f>
-        <v>-0.43348807341951667</v>
+        <f t="shared" ref="N26" si="43">N18/N17</f>
+        <v>-2.4615187761206081</v>
       </c>
       <c r="R26" s="31">
         <f>R18/R17</f>
@@ -3856,7 +3874,7 @@
       </c>
       <c r="T26" s="31">
         <f>T18/T17</f>
-        <v>-0.36190746080067121</v>
+        <v>-1.0404734048968294</v>
       </c>
       <c r="U26" s="31">
         <v>0.02</v>
@@ -3904,10 +3922,11 @@
         <v>0.30808634412993152</v>
       </c>
       <c r="M28" s="30">
-        <v>0.3</v>
+        <f>+M6/I6-1</f>
+        <v>0.3098791992944383</v>
       </c>
       <c r="N28" s="30">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="S28" s="30">
         <f>+S6/R6-1</f>
@@ -3915,7 +3934,7 @@
       </c>
       <c r="T28" s="30">
         <f>+T6/S6-1</f>
-        <v>0.30361906929743809</v>
+        <v>0.31746572720406419</v>
       </c>
       <c r="U28" s="30">
         <v>0.3</v>
@@ -3947,36 +3966,36 @@
         <v>60</v>
       </c>
       <c r="F29" s="31">
-        <f t="shared" ref="F29:M29" si="40">+F6/E6-1</f>
+        <f t="shared" ref="F29:M29" si="44">+F6/E6-1</f>
         <v>8.7855480124976904E-2</v>
       </c>
       <c r="G29" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3.2308981587704455E-2</v>
       </c>
       <c r="H29" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.10011980012295285</v>
       </c>
       <c r="I29" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7.2266282660247372E-2</v>
       </c>
       <c r="J29" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>9.4282010850682774E-2</v>
       </c>
       <c r="K29" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3.3020106362842805E-2</v>
       </c>
       <c r="L29" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7.918457091856923E-2</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" si="40"/>
-        <v>6.5637733864960968E-2</v>
+        <f t="shared" si="44"/>
+        <v>7.3735924286903565E-2</v>
       </c>
     </row>
     <row r="31" spans="2:98" x14ac:dyDescent="0.2">
@@ -3984,7 +4003,7 @@
         <v>115</v>
       </c>
       <c r="AE31" s="48">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="2:98" x14ac:dyDescent="0.2">
@@ -4004,7 +4023,7 @@
       </c>
       <c r="AE33" s="50">
         <f>+NPV(AE32,T19:CT19)</f>
-        <v>5011.780157702924</v>
+        <v>3842.2922651883869</v>
       </c>
     </row>
     <row r="34" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -4014,12 +4033,15 @@
       <c r="L34" s="33">
         <v>438.61599999999999</v>
       </c>
+      <c r="M34" s="33">
+        <v>176.63</v>
+      </c>
       <c r="AD34" s="43" t="s">
         <v>8</v>
       </c>
       <c r="AE34" s="46">
         <f>+Main!C11</f>
-        <v>1083.104</v>
+        <v>916.97</v>
       </c>
     </row>
     <row r="35" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -4029,12 +4051,15 @@
       <c r="L35" s="33">
         <v>644.48800000000006</v>
       </c>
+      <c r="M35" s="33">
+        <v>740.34</v>
+      </c>
       <c r="AD35" s="44" t="s">
         <v>118</v>
       </c>
       <c r="AE35" s="46">
         <f>+AE33-AE34</f>
-        <v>3928.6761577029238</v>
+        <v>2925.3222651883871</v>
       </c>
     </row>
     <row r="36" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4044,12 +4069,15 @@
       <c r="L36" s="3">
         <v>165.001</v>
       </c>
+      <c r="M36" s="3">
+        <v>197.55500000000001</v>
+      </c>
       <c r="AD36" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AE36" s="47">
         <f>+AE35/Main!C7</f>
-        <v>24.603895098874126</v>
+        <v>18.133998680786195</v>
       </c>
     </row>
     <row r="37" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4059,12 +4087,15 @@
       <c r="L37" s="3">
         <v>33.841000000000001</v>
       </c>
+      <c r="M37" s="3">
+        <v>34.518000000000001</v>
+      </c>
       <c r="AD37" s="44" t="s">
         <v>120</v>
       </c>
       <c r="AE37" s="47">
         <f>+Main!C6</f>
-        <v>66.900000000000006</v>
+        <v>66.650000000000006</v>
       </c>
     </row>
     <row r="38" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4074,12 +4105,15 @@
       <c r="L38" s="3">
         <v>32.409999999999997</v>
       </c>
+      <c r="M38" s="3">
+        <v>43.12</v>
+      </c>
       <c r="AD38" s="45" t="s">
         <v>121</v>
       </c>
       <c r="AE38" s="51">
         <f>+AE36/AE37-1</f>
-        <v>-0.63222877281204592</v>
+        <v>-0.72792200028827914</v>
       </c>
     </row>
     <row r="39" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4090,6 +4124,10 @@
         <f>+SUM(L34:L38)</f>
         <v>1314.356</v>
       </c>
+      <c r="M39" s="3">
+        <f>+SUM(M34:M38)</f>
+        <v>1192.163</v>
+      </c>
     </row>
     <row r="40" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
@@ -4098,6 +4136,9 @@
       <c r="L40" s="3">
         <v>2.899</v>
       </c>
+      <c r="M40" s="3">
+        <v>3.5630000000000002</v>
+      </c>
     </row>
     <row r="41" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
@@ -4106,6 +4147,9 @@
       <c r="L41" s="3">
         <v>0.48199999999999998</v>
       </c>
+      <c r="M41" s="3">
+        <v>0.44400000000000001</v>
+      </c>
     </row>
     <row r="42" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
@@ -4115,6 +4159,10 @@
         <f>16.017+21.867</f>
         <v>37.884</v>
       </c>
+      <c r="M42" s="3">
+        <f>16.131+19.536</f>
+        <v>35.667000000000002</v>
+      </c>
     </row>
     <row r="43" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
@@ -4123,6 +4171,9 @@
       <c r="L43" s="3">
         <v>15.753</v>
       </c>
+      <c r="M43" s="3">
+        <v>17.248000000000001</v>
+      </c>
     </row>
     <row r="44" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
@@ -4131,6 +4182,9 @@
       <c r="L44" s="3">
         <v>4.8879999999999999</v>
       </c>
+      <c r="M44" s="3">
+        <v>3.552</v>
+      </c>
     </row>
     <row r="45" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
@@ -4140,6 +4194,10 @@
         <f>+SUM(L39:L44)</f>
         <v>1376.2619999999997</v>
       </c>
+      <c r="M45" s="3">
+        <f>+SUM(M39:M44)</f>
+        <v>1252.6369999999999</v>
+      </c>
     </row>
     <row r="47" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
@@ -4148,6 +4206,9 @@
       <c r="L47" s="3">
         <v>3.2189999999999999</v>
       </c>
+      <c r="M47" s="3">
+        <v>2.2240000000000002</v>
+      </c>
     </row>
     <row r="48" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
@@ -4156,24 +4217,33 @@
       <c r="L48" s="3">
         <v>272.16399999999999</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>51.820999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L49" s="3">
         <v>29.117000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>27.274000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>75</v>
       </c>
       <c r="L50" s="3">
         <v>362.34800000000001</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>383.18299999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>76</v>
       </c>
@@ -4181,24 +4251,34 @@
         <f>+SUM(L47:L50)</f>
         <v>666.84799999999996</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <f>+SUM(M47:M50)</f>
+        <v>464.50200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>75</v>
       </c>
       <c r="L52" s="3">
         <v>14.731999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>14.138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L53" s="3">
         <v>6.6779999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>3.7759999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -4206,17 +4286,24 @@
         <f>+SUM(L51:L53)</f>
         <v>688.25799999999992</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <f>+SUM(M51:M53)</f>
+        <v>482.416</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>79</v>
       </c>
       <c r="L56" s="3">
         <v>688.00400000000002</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="3">
+        <v>770.22299999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>80</v>
       </c>
@@ -4224,8 +4311,12 @@
         <f>+L56+L54</f>
         <v>1376.2619999999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <f>+M56+M54</f>
+        <v>1252.6389999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>81</v>
       </c>
@@ -4233,8 +4324,12 @@
         <f>+L45-L54</f>
         <v>688.00399999999979</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <f>+M45-M54</f>
+        <v>770.221</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>82</v>
       </c>
@@ -4242,8 +4337,12 @@
         <f>+L59/L21</f>
         <v>4.3087232350307172</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="1">
+        <f>+M59/M21</f>
+        <v>4.7745804843878821</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
@@ -4251,16 +4350,23 @@
         <f>+L34+L35</f>
         <v>1083.104</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <f>+M34+M35</f>
+        <v>916.97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4268,35 +4374,85 @@
         <f>+L62-L63</f>
         <v>1083.104</v>
       </c>
+      <c r="M64" s="3">
+        <f>+M62-M63</f>
+        <v>916.97</v>
+      </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="L66" s="1">
+        <v>51.23</v>
+      </c>
+      <c r="M66" s="1">
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="L67" s="3">
+        <f>+L66*L21</f>
+        <v>8180.2527099999988</v>
+      </c>
+      <c r="M67" s="3">
+        <f>+M66*M21</f>
+        <v>8670.7887499999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="L68" s="3">
+        <f>+L67-L64</f>
+        <v>7097.1487099999986</v>
+      </c>
+      <c r="M68" s="3">
+        <f>+M67-M64</f>
+        <v>7753.8187499999995</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="L70" s="66">
+        <f>+L66/L60</f>
+        <v>11.889833067831002</v>
+      </c>
+      <c r="M70" s="66">
+        <f>+M66/M60</f>
+        <v>11.257533552058435</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="L71" s="66">
+        <f>+L67/SUM(I6:L6)</f>
+        <v>12.297100664744487</v>
+      </c>
+      <c r="M71" s="66">
+        <f>+M67/SUM(J6:M6)</f>
+        <v>12.184970917527759</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="66" t="s">
         <v>27</v>
+      </c>
+      <c r="L72" s="66">
+        <f>+L66/SUM(I20:L20)</f>
+        <v>-21.7597249833712</v>
+      </c>
+      <c r="M72" s="66">
+        <f>+M66/SUM(J20:M20)</f>
+        <v>-161.34529470667169</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
@@ -4330,6 +4486,10 @@
         <f>49.835-K75</f>
         <v>11.697000000000003</v>
       </c>
+      <c r="M75" s="3">
+        <f>-127.193-SUM(K75:L75)</f>
+        <v>-177.02799999999999</v>
+      </c>
       <c r="S75" s="3">
         <f>+SUM(G75:J75)</f>
         <v>24.853000000000002</v>
@@ -4361,6 +4521,10 @@
         <f>1.551-K76</f>
         <v>0.85099999999999998</v>
       </c>
+      <c r="M76" s="3">
+        <f>1.057-187.735</f>
+        <v>-186.67800000000003</v>
+      </c>
       <c r="S76" s="3">
         <f>+SUM(G76:J76)</f>
         <v>0.32899999999999996</v>
@@ -4371,28 +4535,32 @@
         <v>87</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" ref="G77:L77" si="41">+G75-G76</f>
+        <f t="shared" ref="G77:L77" si="45">+G75-G76</f>
         <v>-11.217000000000001</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>26.832000000000001</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-6.6970000000000036</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>15.606000000000002</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>37.437999999999995</v>
       </c>
       <c r="L77" s="39">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10.846000000000004</v>
+      </c>
+      <c r="M77" s="39">
+        <f t="shared" ref="M77" si="46">+M75-M76</f>
+        <v>9.6500000000000341</v>
       </c>
       <c r="S77" s="3">
         <f>+S75-S76</f>
@@ -4404,16 +4572,20 @@
         <v>90</v>
       </c>
       <c r="J78" s="3">
-        <f>+SUM(G75:J75)</f>
-        <v>24.853000000000002</v>
+        <f>+SUM(G77:J77)</f>
+        <v>24.523999999999997</v>
       </c>
       <c r="K78" s="3">
-        <f>+SUM(H75:K75)</f>
-        <v>73.951999999999998</v>
+        <f>+SUM(H77:K77)</f>
+        <v>73.179000000000002</v>
       </c>
       <c r="L78" s="3">
-        <f>+SUM(I75:L75)</f>
-        <v>58.54</v>
+        <f>+SUM(I77:L77)</f>
+        <v>57.192999999999998</v>
+      </c>
+      <c r="M78" s="3">
+        <f>+SUM(J77:M77)</f>
+        <v>73.540000000000035</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
@@ -4422,16 +4594,28 @@
       </c>
       <c r="K80" s="1">
         <f>+K78/K21</f>
-        <v>0.46758600631018543</v>
+        <v>0.46269845786149205</v>
       </c>
       <c r="L80" s="1">
         <f>+L78/L21</f>
-        <v>0.36661510424168792</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+        <v>0.35817932451135731</v>
+      </c>
+      <c r="M80" s="1">
+        <f>+M78/M21</f>
+        <v>0.45587259867217983</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="66" t="s">
         <v>89</v>
+      </c>
+      <c r="L81" s="66">
+        <f>+L66/L80</f>
+        <v>143.02891455248019</v>
+      </c>
+      <c r="M81" s="66">
+        <f>+M66/M80</f>
+        <v>117.90574857220555</v>
       </c>
     </row>
   </sheetData>
@@ -4441,14 +4625,15 @@
     <hyperlink ref="I1" r:id="rId3" xr:uid="{66E50FE4-9C30-47F5-AA1C-BA1CC1967928}"/>
     <hyperlink ref="S1" r:id="rId4" xr:uid="{FC940ED8-661F-41D5-A05C-BC26F10BC7F8}"/>
     <hyperlink ref="J1" r:id="rId5" xr:uid="{4D54D595-E29E-4A94-A618-82F2F2484DE8}"/>
+    <hyperlink ref="M1" r:id="rId6" xr:uid="{EDA4CCD6-3F01-439C-93AC-6C9C4864237D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="S4:S5 S18:S21" formulaRange="1"/>
+    <ignoredError sqref="S4:S5 S18:S21 N15" formulaRange="1"/>
     <ignoredError sqref="S6:S17 T18 T15:T16 T11:T13" formula="1" formulaRange="1"/>
-    <ignoredError sqref="T20:T21 T10 T14 T17 T19" formula="1"/>
+    <ignoredError sqref="T20 T10 T14 T17 T19" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>